--- a/excel_data/Book38.xlsx
+++ b/excel_data/Book38.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97016F98-0C1F-4DD7-8EE8-33BB14B46699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TME-1\excel_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0011ADEC-5A52-4BF1-9449-23125664C601}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BD099A39-A086-4377-802D-B27D655D95FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BD099A39-A086-4377-802D-B27D655D95FF}"/>
   </bookViews>
   <sheets>
     <sheet name="masterlead" sheetId="1" r:id="rId1"/>
@@ -18,17 +23,162 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tejaswi Dessai</author>
+  </authors>
+  <commentList>
+    <comment ref="P104" authorId="0" shapeId="0" xr:uid="{0E15AEBE-DA62-431A-9F22-0A662BCF94F4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tejaswi Dessai:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Removed Default Null</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P105" authorId="0" shapeId="0" xr:uid="{3140CE06-C833-44E7-98E5-5AC08EC69B6A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tejaswi Dessai:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Removed Default Null</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P106" authorId="0" shapeId="0" xr:uid="{F9736A35-DE71-4DE1-B15B-E6E66110AA89}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tejaswi Dessai:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Removed Default Null</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P107" authorId="0" shapeId="0" xr:uid="{EEC47561-5D83-4112-AF92-B4820D4912F2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tejaswi Dessai:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Removed Default Null</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P108" authorId="0" shapeId="0" xr:uid="{7BA9EBC1-97AC-4EE1-BC31-785C2B23320B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tejaswi Dessai:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Removed Default Null</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P109" authorId="0" shapeId="0" xr:uid="{F4AD4651-0B2C-49F6-A43D-47EC697AE167}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tejaswi Dessai:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Removed Default Null</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1177,9 +1327,6 @@
     <t>cvdisp</t>
   </si>
   <si>
-    <t>null = default, 1=live, 0=dead</t>
-  </si>
-  <si>
     <t>Agent ID_I</t>
   </si>
   <si>
@@ -1584,12 +1731,15 @@
   <si>
     <t>constraint composnmlk unique(fname, lname, plink)</t>
   </si>
+  <si>
+    <t>1=yes, 0=Default</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1623,8 +1773,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1667,6 +1830,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1689,7 +1858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1708,6 +1877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2992,36 +3162,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BB87AE-BC89-4D1B-A655-CF0191129AC5}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:T166"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BB87AE-BC89-4D1B-A655-CF0191129AC5}">
+  <dimension ref="A1:T162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="70" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="E88" zoomScale="70" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P104" sqref="P104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" customWidth="1"/>
-    <col min="9" max="9" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.08984375" customWidth="1"/>
-    <col min="16" max="16" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="75.81640625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="75.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3074,7 +3243,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3109,7 +3278,7 @@
         <v>lmid integer GENERATED ALWAYS AS IDENTITY (INCREMENT 1) primary key,</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -3145,7 +3314,7 @@
         <v>rlc smallint check (rlc &gt;=0 and rlc &lt;=1),</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
@@ -3186,7 +3355,7 @@
         <v>ontag smallint check (ontag &gt;=0 and ontag &lt;=1),</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -3234,7 +3403,7 @@
         <v>cnid integer,</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -3264,7 +3433,7 @@
         <v>campgrp varchar (100),</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -3312,7 +3481,7 @@
         <v>agent integer,</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -3360,7 +3529,7 @@
         <v>sal varchar (10) not null,</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -3409,7 +3578,7 @@
         <v>fname varchar (100) not null,</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -3458,7 +3627,7 @@
         <v>lname varchar (100) not null,</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -3489,7 +3658,7 @@
         <v>conname varchar (100),</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -3537,7 +3706,7 @@
         <v>jtitle varchar (150) not null,</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -3591,7 +3760,7 @@
         <v xml:space="preserve">Jlevel smallint not null, </v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -3642,7 +3811,7 @@
         <v xml:space="preserve">dname smallint not null, </v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -3687,7 +3856,7 @@
         <v>cname varchar (150) not null,</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -3731,7 +3900,7 @@
         <v>ctyp smallint check (ctyp &gt;=0 and ctyp &lt;=4),</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -3782,7 +3951,7 @@
         <v>email varchar (150) unique not null,</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -3827,7 +3996,7 @@
         <v>phone integer not null,</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -3874,7 +4043,7 @@
         <v>linetype smallint check (linetype &gt;=0 and linetype &lt;=1) not null,</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -3916,7 +4085,7 @@
         <v>phext integer,</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -3961,7 +4130,7 @@
         <v>altphn varchar (50),</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -4003,7 +4172,7 @@
         <v>address varchar (255) not null,</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -4045,7 +4214,7 @@
         <v>city varchar (100) not null,</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -4087,7 +4256,7 @@
         <v>state varchar (100) not null,</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -4129,7 +4298,7 @@
         <v>zipcode varchar (20) not null,</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -4174,7 +4343,7 @@
         <v xml:space="preserve">country smallint not null, </v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -4219,7 +4388,7 @@
         <v xml:space="preserve">timez smallint not null, </v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -4267,7 +4436,7 @@
         <v>indtry integer not null,</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -4315,7 +4484,7 @@
         <v>sindtry integer not null,</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -4359,7 +4528,7 @@
         <v>sectyp smallint check (sectyp &gt;=0 and sectyp &lt;=4),</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -4401,7 +4570,7 @@
         <v>empsize integer,</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -4437,7 +4606,7 @@
         <v>arevenue integer,</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -4478,7 +4647,7 @@
         <v>mlbl smallint check (mlbl &gt;=0 and mlbl &lt;=4),</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -4523,7 +4692,7 @@
         <v>curr integer,</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -4565,7 +4734,7 @@
         <v>domain varchar (255) not null,</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -4614,7 +4783,7 @@
         <v>plink varchar (800) unique not null,</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -4656,7 +4825,7 @@
         <v>empszlink varchar (800) not null,</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -4701,7 +4870,7 @@
         <v>indlink varchar (800) not null,</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -4746,7 +4915,7 @@
         <v>revszlink varchar (800) not null,</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -4785,8 +4954,7 @@
         <v>othrlink varchar (800),</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -4822,7 +4990,7 @@
         <v>svagtidi integer,</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -4849,7 +5017,7 @@
         <v>svdti timestamp without time zone,</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -4888,7 +5056,7 @@
         <v>stagtidi integer,</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -4918,7 +5086,7 @@
         <v>stdti timestamp without time zone,</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -4957,7 +5125,7 @@
         <v>stagtidii integer,</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -4987,7 +5155,7 @@
         <v>stdtii timestamp without time zone,</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -5020,7 +5188,7 @@
         <v>sbsvtag integer,</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -5056,7 +5224,7 @@
         <v>pcomt varchar (255),</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>35</v>
       </c>
@@ -5091,7 +5259,7 @@
         <v>pctag smallint check (pctag &gt;=0 and pctag &lt;=2),</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -5126,7 +5294,7 @@
         <v>pcmandt smallint check (pcmandt &gt;=0 and pcmandt &lt;=1),</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -5158,9 +5326,9 @@
         <v>pload smallint check (pload &gt;=0 and pload &lt;=1),</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="4" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>221</v>
       </c>
@@ -5196,7 +5364,7 @@
         <v>dvagtidi integer,</v>
       </c>
     </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>221</v>
       </c>
@@ -5223,7 +5391,7 @@
         <v>dvdti timestamp without time zone,</v>
       </c>
     </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>221</v>
       </c>
@@ -5259,7 +5427,7 @@
         <v>dvagtidii integer,</v>
       </c>
     </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>221</v>
       </c>
@@ -5286,7 +5454,7 @@
         <v>dvdtii timestamp without time zone,</v>
       </c>
     </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>221</v>
       </c>
@@ -5313,7 +5481,7 @@
         <v>dvrdti timestamp without time zone,</v>
       </c>
     </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>221</v>
       </c>
@@ -5349,7 +5517,7 @@
         <v>dvragtidi integer,</v>
       </c>
     </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>221</v>
       </c>
@@ -5376,7 +5544,7 @@
         <v>dvrdtii timestamp without time zone,</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>221</v>
       </c>
@@ -5412,7 +5580,7 @@
         <v>dvragtidii integer,</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>221</v>
       </c>
@@ -5443,7 +5611,7 @@
         <v>dvrejtg smallint check (dvrejtg &gt;=0 and dvrejtg &lt;=3),</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>221</v>
       </c>
@@ -5474,7 +5642,7 @@
         <v>dvsbtg smallint check (dvsbtg &gt;=0 and dvsbtg &lt;=3),</v>
       </c>
     </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>221</v>
       </c>
@@ -5504,7 +5672,7 @@
         <v>dvrejectreason varchar (100),</v>
       </c>
     </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>221</v>
       </c>
@@ -5537,7 +5705,7 @@
         <v>dvcomt varchar (255),</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>221</v>
       </c>
@@ -5572,7 +5740,7 @@
         <v>dvstat smallint check (dvstat &gt;=0 and dvstat &lt;=2),</v>
       </c>
     </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>221</v>
       </c>
@@ -5604,9 +5772,9 @@
         <v>dvload smallint check (dvload &gt;=0 and dvload &lt;=1),</v>
       </c>
     </row>
-    <row r="69" spans="1:20" s="4" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="71" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>255</v>
       </c>
@@ -5655,7 +5823,7 @@
         <v>evdisp smallint check (evdisp &gt;=0 and evdisp &lt;=6) not null,</v>
       </c>
     </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>255</v>
       </c>
@@ -5696,7 +5864,7 @@
         <v>evstat smallint check (evstat &gt;=0 and evstat &lt;=1) not null,</v>
       </c>
     </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>255</v>
       </c>
@@ -5741,7 +5909,7 @@
         <v>evmail varchar (150) not null,</v>
       </c>
     </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>255</v>
       </c>
@@ -5780,7 +5948,7 @@
         <v>evagti integer,</v>
       </c>
     </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>255</v>
       </c>
@@ -5810,7 +5978,7 @@
         <v>evdti timestamp without time zone,</v>
       </c>
     </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>255</v>
       </c>
@@ -5849,7 +6017,7 @@
         <v>evagtii integer,</v>
       </c>
     </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>255</v>
       </c>
@@ -5879,7 +6047,7 @@
         <v>evdtii timestamp without time zone,</v>
       </c>
     </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>255</v>
       </c>
@@ -5914,7 +6082,7 @@
         <v>evcomp smallint check (evcomp &gt;=0 and evcomp &lt;=2),</v>
       </c>
     </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>255</v>
       </c>
@@ -5949,9 +6117,9 @@
         <v>evload smallint check (evload &gt;=0 and evload &lt;=1),</v>
       </c>
     </row>
-    <row r="80" spans="1:20" s="4" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:20" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>287</v>
       </c>
@@ -5990,7 +6158,7 @@
         <v>lcalldisp varchar (25),</v>
       </c>
     </row>
-    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>287</v>
       </c>
@@ -6028,7 +6196,7 @@
         <v>lcallstat smallint check (lcallstat &gt;=0 and lcallstat &lt;=2),</v>
       </c>
     </row>
-    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>287</v>
       </c>
@@ -6069,7 +6237,7 @@
         <v>ddispositionclass smallint check (ddispositionclass &gt;=0 and ddispositionclass &lt;=1) not null,</v>
       </c>
     </row>
-    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>287</v>
       </c>
@@ -6110,7 +6278,7 @@
         <v>cvr smallint check (cvr &gt;=0 and cvr &lt;=1) not null,</v>
       </c>
     </row>
-    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>303</v>
       </c>
@@ -6154,7 +6322,7 @@
         <v>emailver smallint check (emailver &gt;=0 and emailver &lt;=1) not null,</v>
       </c>
     </row>
-    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>287</v>
       </c>
@@ -6187,7 +6355,7 @@
         <v>cvcomnt varchar (255),</v>
       </c>
     </row>
-    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>287</v>
       </c>
@@ -6223,7 +6391,7 @@
         <v>cdcrjfields varchar (100),</v>
       </c>
     </row>
-    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>287</v>
       </c>
@@ -6264,7 +6432,7 @@
         <v>cdclst smallint check (cdclst &gt;=0 and cdclst &lt;=1),</v>
       </c>
     </row>
-    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>303</v>
       </c>
@@ -6306,7 +6474,7 @@
         <v>aum integer,</v>
       </c>
     </row>
-    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>303</v>
       </c>
@@ -6348,7 +6516,7 @@
         <v xml:space="preserve">atitle smallint, </v>
       </c>
     </row>
-    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>303</v>
       </c>
@@ -6381,7 +6549,7 @@
         <v>aa1 varchar (800),</v>
       </c>
     </row>
-    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>303</v>
       </c>
@@ -6414,7 +6582,7 @@
         <v>aa2 varchar (800),</v>
       </c>
     </row>
-    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>303</v>
       </c>
@@ -6447,7 +6615,7 @@
         <v>aa3 varchar (800),</v>
       </c>
     </row>
-    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>303</v>
       </c>
@@ -6480,7 +6648,7 @@
         <v>aa4 varchar (800),</v>
       </c>
     </row>
-    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>303</v>
       </c>
@@ -6513,7 +6681,7 @@
         <v>aa5 varchar (800),</v>
       </c>
     </row>
-    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>303</v>
       </c>
@@ -6546,7 +6714,7 @@
         <v>aa6 varchar (800),</v>
       </c>
     </row>
-    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>303</v>
       </c>
@@ -6579,7 +6747,7 @@
         <v>aa7 varchar (800),</v>
       </c>
     </row>
-    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>303</v>
       </c>
@@ -6612,7 +6780,7 @@
         <v>aa8 varchar (800),</v>
       </c>
     </row>
-    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>303</v>
       </c>
@@ -6645,7 +6813,7 @@
         <v>aa9 varchar (800),</v>
       </c>
     </row>
-    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>303</v>
       </c>
@@ -6678,7 +6846,7 @@
         <v>aa10 varchar (800),</v>
       </c>
     </row>
-    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>303</v>
       </c>
@@ -6711,7 +6879,7 @@
         <v>aa11 varchar (800),</v>
       </c>
     </row>
-    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>303</v>
       </c>
@@ -6744,7 +6912,7 @@
         <v>aa12 varchar (800),</v>
       </c>
     </row>
-    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>303</v>
       </c>
@@ -6773,8 +6941,8 @@
       <c r="N104" t="s">
         <v>19</v>
       </c>
-      <c r="P104" t="s">
-        <v>302</v>
+      <c r="P104" s="14" t="s">
+        <v>500</v>
       </c>
       <c r="Q104" t="s">
         <v>306</v>
@@ -6788,7 +6956,7 @@
         <v>optpst smallint check (optpst &gt;=0 and optpst &lt;=1) not null,</v>
       </c>
     </row>
-    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>303</v>
       </c>
@@ -6817,8 +6985,8 @@
       <c r="N105" t="s">
         <v>19</v>
       </c>
-      <c r="P105" t="s">
-        <v>302</v>
+      <c r="P105" s="14" t="s">
+        <v>500</v>
       </c>
       <c r="Q105" t="s">
         <v>306</v>
@@ -6832,7 +7000,7 @@
         <v>optph smallint check (optph &gt;=0 and optph &lt;=1) not null,</v>
       </c>
     </row>
-    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>303</v>
       </c>
@@ -6861,8 +7029,8 @@
       <c r="N106" t="s">
         <v>19</v>
       </c>
-      <c r="P106" t="s">
-        <v>302</v>
+      <c r="P106" s="14" t="s">
+        <v>500</v>
       </c>
       <c r="Q106" t="s">
         <v>361</v>
@@ -6876,7 +7044,7 @@
         <v>optin smallint check (optin &gt;=0 and optin &lt;=1) not null,</v>
       </c>
     </row>
-    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>303</v>
       </c>
@@ -6905,8 +7073,8 @@
       <c r="N107" t="s">
         <v>19</v>
       </c>
-      <c r="P107" t="s">
-        <v>302</v>
+      <c r="P107" s="14" t="s">
+        <v>500</v>
       </c>
       <c r="Q107" t="s">
         <v>306</v>
@@ -6920,7 +7088,7 @@
         <v>opteml smallint check (opteml &gt;=0 and opteml &lt;=1) not null,</v>
       </c>
     </row>
-    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>303</v>
       </c>
@@ -6946,8 +7114,8 @@
       <c r="N108" t="s">
         <v>19</v>
       </c>
-      <c r="P108" t="s">
-        <v>302</v>
+      <c r="P108" s="14" t="s">
+        <v>500</v>
       </c>
       <c r="R108" t="str">
         <f t="shared" ref="R108:R109" si="8">"smallint check ("&amp;I108&amp;" &gt;=0 and "&amp;I108&amp;" &lt;=1),"</f>
@@ -6958,7 +7126,7 @@
         <v>dnd smallint check (dnd &gt;=0 and dnd &lt;=1),</v>
       </c>
     </row>
-    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>366</v>
       </c>
@@ -6984,8 +7152,8 @@
       <c r="N109" t="s">
         <v>19</v>
       </c>
-      <c r="P109" t="s">
-        <v>369</v>
+      <c r="P109" s="14" t="s">
+        <v>500</v>
       </c>
       <c r="R109" t="str">
         <f t="shared" si="8"/>
@@ -6996,22 +7164,21 @@
         <v>cvdisp smallint check (cvdisp &gt;=0 and cvdisp &lt;=1),</v>
       </c>
     </row>
-    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>287</v>
       </c>
       <c r="C111" t="s">
+        <v>369</v>
+      </c>
+      <c r="D111" t="s">
         <v>370</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" t="s">
         <v>371</v>
-      </c>
-      <c r="E111" t="s">
-        <v>19</v>
-      </c>
-      <c r="I111" t="s">
-        <v>372</v>
       </c>
       <c r="J111" t="s">
         <v>51</v>
@@ -7033,21 +7200,21 @@
         <v>cdcsvagti integer,</v>
       </c>
     </row>
-    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>287</v>
       </c>
       <c r="C112" t="s">
+        <v>372</v>
+      </c>
+      <c r="D112" t="s">
+        <v>370</v>
+      </c>
+      <c r="E112" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112" t="s">
         <v>373</v>
-      </c>
-      <c r="D112" t="s">
-        <v>371</v>
-      </c>
-      <c r="E112" t="s">
-        <v>19</v>
-      </c>
-      <c r="I112" t="s">
-        <v>374</v>
       </c>
       <c r="L112" t="s">
         <v>188</v>
@@ -7060,15 +7227,15 @@
         <v>cdcsvdti timestamp without time zone,</v>
       </c>
     </row>
-    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>287</v>
       </c>
       <c r="C113" t="s">
+        <v>374</v>
+      </c>
+      <c r="D113" t="s">
         <v>375</v>
-      </c>
-      <c r="D113" t="s">
-        <v>376</v>
       </c>
       <c r="E113" t="s">
         <v>20</v>
@@ -7077,7 +7244,7 @@
         <v>203</v>
       </c>
       <c r="I113" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K113" s="3"/>
       <c r="L113" t="s">
@@ -7087,7 +7254,7 @@
         <v>19</v>
       </c>
       <c r="P113" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="R113" t="str">
         <f>"smallint check ("&amp;I113&amp;" &gt;=0 and "&amp;I113&amp;" &lt;=1),"</f>
@@ -7098,21 +7265,21 @@
         <v>cdcsv smallint check (cdcsv &gt;=0 and cdcsv &lt;=1),</v>
       </c>
     </row>
-    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>287</v>
       </c>
       <c r="C114" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D114" t="s">
+        <v>378</v>
+      </c>
+      <c r="E114" t="s">
+        <v>19</v>
+      </c>
+      <c r="I114" t="s">
         <v>379</v>
-      </c>
-      <c r="E114" t="s">
-        <v>19</v>
-      </c>
-      <c r="I114" t="s">
-        <v>380</v>
       </c>
       <c r="J114" t="s">
         <v>51</v>
@@ -7127,7 +7294,7 @@
         <v>20</v>
       </c>
       <c r="Q114" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="R114" t="s">
         <v>43</v>
@@ -7137,27 +7304,27 @@
         <v>cdcsbagti integer,</v>
       </c>
     </row>
-    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>287</v>
       </c>
       <c r="C115" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D115" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E115" t="s">
         <v>19</v>
       </c>
       <c r="I115" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L115" t="s">
         <v>188</v>
       </c>
       <c r="Q115" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="R115" t="s">
         <v>189</v>
@@ -7167,21 +7334,21 @@
         <v>cdcsbdti timestamp without time zone,</v>
       </c>
     </row>
-    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>287</v>
       </c>
       <c r="C116" t="s">
+        <v>382</v>
+      </c>
+      <c r="D116" t="s">
+        <v>378</v>
+      </c>
+      <c r="E116" t="s">
+        <v>19</v>
+      </c>
+      <c r="I116" t="s">
         <v>383</v>
-      </c>
-      <c r="D116" t="s">
-        <v>379</v>
-      </c>
-      <c r="E116" t="s">
-        <v>19</v>
-      </c>
-      <c r="I116" t="s">
-        <v>384</v>
       </c>
       <c r="J116" t="s">
         <v>51</v>
@@ -7196,7 +7363,7 @@
         <v>20</v>
       </c>
       <c r="Q116" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="R116" t="s">
         <v>43</v>
@@ -7206,27 +7373,27 @@
         <v>cdcsbagtii integer,</v>
       </c>
     </row>
-    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>287</v>
       </c>
       <c r="C117" t="s">
+        <v>385</v>
+      </c>
+      <c r="D117" t="s">
+        <v>378</v>
+      </c>
+      <c r="E117" t="s">
+        <v>19</v>
+      </c>
+      <c r="I117" t="s">
         <v>386</v>
-      </c>
-      <c r="D117" t="s">
-        <v>379</v>
-      </c>
-      <c r="E117" t="s">
-        <v>19</v>
-      </c>
-      <c r="I117" t="s">
-        <v>387</v>
       </c>
       <c r="L117" t="s">
         <v>188</v>
       </c>
       <c r="Q117" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="R117" t="s">
         <v>189</v>
@@ -7236,21 +7403,21 @@
         <v>cdcsbdtii timestamp without time zone,</v>
       </c>
     </row>
-    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>287</v>
       </c>
       <c r="C118" t="s">
+        <v>387</v>
+      </c>
+      <c r="D118" t="s">
         <v>388</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
+        <v>19</v>
+      </c>
+      <c r="I118" t="s">
         <v>389</v>
-      </c>
-      <c r="E118" t="s">
-        <v>19</v>
-      </c>
-      <c r="I118" t="s">
-        <v>390</v>
       </c>
       <c r="J118" t="s">
         <v>51</v>
@@ -7265,7 +7432,7 @@
         <v>20</v>
       </c>
       <c r="Q118" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R118" t="s">
         <v>43</v>
@@ -7275,27 +7442,27 @@
         <v>cdcrjtagti integer,</v>
       </c>
     </row>
-    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>287</v>
       </c>
       <c r="C119" t="s">
+        <v>391</v>
+      </c>
+      <c r="D119" t="s">
+        <v>388</v>
+      </c>
+      <c r="E119" t="s">
+        <v>19</v>
+      </c>
+      <c r="I119" t="s">
         <v>392</v>
-      </c>
-      <c r="D119" t="s">
-        <v>389</v>
-      </c>
-      <c r="E119" t="s">
-        <v>19</v>
-      </c>
-      <c r="I119" t="s">
-        <v>393</v>
       </c>
       <c r="L119" t="s">
         <v>188</v>
       </c>
       <c r="Q119" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R119" t="s">
         <v>189</v>
@@ -7305,21 +7472,21 @@
         <v>cdcrjtdti timestamp without time zone,</v>
       </c>
     </row>
-    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>287</v>
       </c>
       <c r="C120" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D120" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E120" t="s">
         <v>19</v>
       </c>
       <c r="I120" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J120" t="s">
         <v>51</v>
@@ -7334,7 +7501,7 @@
         <v>20</v>
       </c>
       <c r="Q120" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R120" t="s">
         <v>43</v>
@@ -7344,27 +7511,27 @@
         <v>cdcrjtagtii integer,</v>
       </c>
     </row>
-    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>287</v>
       </c>
       <c r="C121" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D121" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E121" t="s">
         <v>19</v>
       </c>
       <c r="I121" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L121" t="s">
         <v>188</v>
       </c>
       <c r="Q121" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R121" t="s">
         <v>189</v>
@@ -7374,15 +7541,15 @@
         <v>cdcrjtdtii timestamp without time zone,</v>
       </c>
     </row>
-    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>287</v>
       </c>
       <c r="C122" t="s">
+        <v>396</v>
+      </c>
+      <c r="D122" t="s">
         <v>397</v>
-      </c>
-      <c r="D122" t="s">
-        <v>398</v>
       </c>
       <c r="E122" t="s">
         <v>20</v>
@@ -7391,7 +7558,7 @@
         <v>203</v>
       </c>
       <c r="I122" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K122" s="3"/>
       <c r="L122" s="9" t="s">
@@ -7401,7 +7568,7 @@
         <v>19</v>
       </c>
       <c r="P122" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R122" t="str">
         <f t="shared" ref="R122:R123" si="10">"smallint check ("&amp;I122&amp;" &gt;=0 and "&amp;I122&amp;" &lt;=4),"</f>
@@ -7412,15 +7579,15 @@
         <v>cdcsb smallint check (cdcsb &gt;=0 and cdcsb &lt;=4),</v>
       </c>
     </row>
-    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>287</v>
       </c>
       <c r="C123" t="s">
+        <v>400</v>
+      </c>
+      <c r="D123" t="s">
         <v>401</v>
-      </c>
-      <c r="D123" t="s">
-        <v>402</v>
       </c>
       <c r="E123" t="s">
         <v>20</v>
@@ -7429,7 +7596,7 @@
         <v>203</v>
       </c>
       <c r="I123" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K123" s="3"/>
       <c r="L123" t="s">
@@ -7439,7 +7606,7 @@
         <v>19</v>
       </c>
       <c r="P123" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="R123" t="str">
         <f t="shared" si="10"/>
@@ -7450,21 +7617,21 @@
         <v>cdcrjt smallint check (cdcrjt &gt;=0 and cdcrjt &lt;=4),</v>
       </c>
     </row>
-    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>287</v>
       </c>
       <c r="C124" t="s">
+        <v>404</v>
+      </c>
+      <c r="D124" t="s">
         <v>405</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
+        <v>19</v>
+      </c>
+      <c r="I124" t="s">
         <v>406</v>
-      </c>
-      <c r="E124" t="s">
-        <v>19</v>
-      </c>
-      <c r="I124" t="s">
-        <v>407</v>
       </c>
       <c r="K124" s="3"/>
       <c r="L124" t="s">
@@ -7477,7 +7644,7 @@
         <v>81</v>
       </c>
       <c r="P124" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="R124" t="str">
         <f>"smallint check ("&amp;I124&amp;" &gt;=0 and "&amp;I124&amp;" &lt;=2),"</f>
@@ -7488,21 +7655,21 @@
         <v>cdccomp smallint check (cdccomp &gt;=0 and cdccomp &lt;=2),</v>
       </c>
     </row>
-    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>287</v>
       </c>
       <c r="C125" t="s">
+        <v>408</v>
+      </c>
+      <c r="D125" t="s">
         <v>409</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
+        <v>19</v>
+      </c>
+      <c r="I125" t="s">
         <v>410</v>
-      </c>
-      <c r="E125" t="s">
-        <v>19</v>
-      </c>
-      <c r="I125" t="s">
-        <v>411</v>
       </c>
       <c r="K125" s="3"/>
       <c r="L125" t="s">
@@ -7529,12 +7696,12 @@
         <v>cdcmandt smallint check (cdcmandt &gt;=0 and cdcmandt &lt;=1),</v>
       </c>
     </row>
-    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>287</v>
       </c>
       <c r="C126" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E126" t="s">
         <v>19</v>
@@ -7543,7 +7710,7 @@
         <v>203</v>
       </c>
       <c r="I126" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K126" s="3"/>
       <c r="L126" t="s">
@@ -7564,23 +7731,23 @@
         <v>cdcload smallint check (cdcload &gt;=0 and cdcload &lt;=1),</v>
       </c>
     </row>
-    <row r="127" spans="1:20" s="4" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:20" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>366</v>
       </c>
       <c r="C129" t="s">
+        <v>413</v>
+      </c>
+      <c r="D129" t="s">
         <v>414</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
+        <v>19</v>
+      </c>
+      <c r="I129" t="s">
         <v>415</v>
-      </c>
-      <c r="E129" t="s">
-        <v>19</v>
-      </c>
-      <c r="I129" t="s">
-        <v>416</v>
       </c>
       <c r="L129" t="s">
         <v>22</v>
@@ -7596,21 +7763,21 @@
         <v>lsagti integer,</v>
       </c>
     </row>
-    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>366</v>
       </c>
       <c r="C130" t="s">
+        <v>416</v>
+      </c>
+      <c r="D130" t="s">
         <v>417</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
+        <v>19</v>
+      </c>
+      <c r="I130" t="s">
         <v>418</v>
-      </c>
-      <c r="E130" t="s">
-        <v>19</v>
-      </c>
-      <c r="I130" t="s">
-        <v>419</v>
       </c>
       <c r="L130" t="s">
         <v>188</v>
@@ -7623,15 +7790,15 @@
         <v>lsdti timestamp without time zone,</v>
       </c>
     </row>
-    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>366</v>
       </c>
       <c r="C131" t="s">
+        <v>419</v>
+      </c>
+      <c r="D131" t="s">
         <v>420</v>
-      </c>
-      <c r="D131" t="s">
-        <v>421</v>
       </c>
       <c r="E131" t="s">
         <v>20</v>
@@ -7640,7 +7807,7 @@
         <v>62</v>
       </c>
       <c r="I131" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L131" t="s">
         <v>47</v>
@@ -7656,15 +7823,15 @@
         <v>lscomnti varchar (255),</v>
       </c>
     </row>
-    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>422</v>
+      </c>
+      <c r="C132" t="s">
         <v>423</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>424</v>
-      </c>
-      <c r="D132" t="s">
-        <v>425</v>
       </c>
       <c r="E132" t="s">
         <v>20</v>
@@ -7676,7 +7843,7 @@
         <v>20</v>
       </c>
       <c r="I132" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K132" s="3"/>
       <c r="L132" t="s">
@@ -7700,15 +7867,15 @@
         <v>clscored smallint check (clscored &gt;=0 and clscored &lt;=1) not null,</v>
       </c>
     </row>
-    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>366</v>
       </c>
       <c r="C133" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D133" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E133" t="s">
         <v>20</v>
@@ -7720,7 +7887,7 @@
         <v>20</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K133" s="3"/>
       <c r="L133" t="s">
@@ -7730,10 +7897,10 @@
         <v>19</v>
       </c>
       <c r="P133" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q133" t="s">
         <v>429</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>430</v>
       </c>
       <c r="R133" t="str">
         <f t="shared" ref="R133:R134" si="13">"smallint check ("&amp;I133&amp;" &gt;=0 and "&amp;I133&amp;" &lt;=1),"</f>
@@ -7744,12 +7911,12 @@
         <v>cdctg smallint check (cdctg &gt;=0 and cdctg &lt;=1),</v>
       </c>
     </row>
-    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>366</v>
       </c>
       <c r="C134" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E134" t="s">
         <v>19</v>
@@ -7758,7 +7925,7 @@
         <v>203</v>
       </c>
       <c r="I134" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K134" s="3"/>
       <c r="L134" t="s">
@@ -7779,26 +7946,26 @@
         <v>lsload smallint check (lsload &gt;=0 and lsload &lt;=1),</v>
       </c>
     </row>
-    <row r="135" spans="1:20" s="4" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:20" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>432</v>
+      </c>
+      <c r="C137" t="s">
         <v>433</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>434</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
+        <v>19</v>
+      </c>
+      <c r="G137" t="s">
+        <v>20</v>
+      </c>
+      <c r="I137" t="s">
         <v>435</v>
-      </c>
-      <c r="E137" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" t="s">
-        <v>20</v>
-      </c>
-      <c r="I137" t="s">
-        <v>436</v>
       </c>
       <c r="K137" s="3"/>
       <c r="L137" t="s">
@@ -7808,7 +7975,7 @@
         <v>19</v>
       </c>
       <c r="P137" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="R137" t="str">
         <f t="shared" ref="R137:R142" si="14">"smallint check ("&amp;I137&amp;" &gt;=0 and "&amp;I137&amp;" &lt;=1),"</f>
@@ -7819,15 +7986,15 @@
         <v>qaload smallint check (qaload &gt;=0 and qaload &lt;=1),</v>
       </c>
     </row>
-    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C138" t="s">
+        <v>437</v>
+      </c>
+      <c r="D138" t="s">
         <v>438</v>
-      </c>
-      <c r="D138" t="s">
-        <v>439</v>
       </c>
       <c r="E138" t="s">
         <v>20</v>
@@ -7839,7 +8006,7 @@
         <v>20</v>
       </c>
       <c r="I138" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K138" s="3"/>
       <c r="L138" t="s">
@@ -7849,7 +8016,7 @@
         <v>19</v>
       </c>
       <c r="P138" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="R138" t="str">
         <f t="shared" si="14"/>
@@ -7860,15 +8027,15 @@
         <v>qadcrej smallint check (qadcrej &gt;=0 and qadcrej &lt;=1),</v>
       </c>
     </row>
-    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C139" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D139" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E139" t="s">
         <v>20</v>
@@ -7880,7 +8047,7 @@
         <v>20</v>
       </c>
       <c r="I139" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K139" s="3"/>
       <c r="L139" t="s">
@@ -7890,10 +8057,10 @@
         <v>19</v>
       </c>
       <c r="P139" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="Q139" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R139" t="str">
         <f t="shared" si="14"/>
@@ -7904,15 +8071,15 @@
         <v>qacdcrej smallint check (qacdcrej &gt;=0 and qacdcrej &lt;=1),</v>
       </c>
     </row>
-    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C140" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D140" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E140" t="s">
         <v>20</v>
@@ -7924,7 +8091,7 @@
         <v>20</v>
       </c>
       <c r="I140" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K140" s="3"/>
       <c r="L140" t="s">
@@ -7934,7 +8101,7 @@
         <v>19</v>
       </c>
       <c r="P140" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="R140" t="str">
         <f t="shared" si="14"/>
@@ -7945,15 +8112,15 @@
         <v>qarej smallint check (qarej &gt;=0 and qarej &lt;=1),</v>
       </c>
     </row>
-    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C141" t="s">
+        <v>446</v>
+      </c>
+      <c r="D141" t="s">
         <v>447</v>
-      </c>
-      <c r="D141" t="s">
-        <v>448</v>
       </c>
       <c r="E141" t="s">
         <v>20</v>
@@ -7965,7 +8132,7 @@
         <v>20</v>
       </c>
       <c r="I141" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K141" s="3"/>
       <c r="L141" t="s">
@@ -7975,7 +8142,7 @@
         <v>19</v>
       </c>
       <c r="P141" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="R141" t="str">
         <f t="shared" si="14"/>
@@ -7986,15 +8153,15 @@
         <v>qaacpt smallint check (qaacpt &gt;=0 and qaacpt &lt;=1),</v>
       </c>
     </row>
-    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C142" t="s">
+        <v>450</v>
+      </c>
+      <c r="D142" t="s">
         <v>451</v>
-      </c>
-      <c r="D142" t="s">
-        <v>452</v>
       </c>
       <c r="E142" t="s">
         <v>20</v>
@@ -8006,7 +8173,7 @@
         <v>20</v>
       </c>
       <c r="I142" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K142" s="3"/>
       <c r="L142" t="s">
@@ -8016,7 +8183,7 @@
         <v>19</v>
       </c>
       <c r="P142" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="R142" t="str">
         <f t="shared" si="14"/>
@@ -8027,15 +8194,15 @@
         <v>qasv smallint check (qasv &gt;=0 and qasv &lt;=1),</v>
       </c>
     </row>
-    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C143" t="s">
+        <v>453</v>
+      </c>
+      <c r="D143" t="s">
         <v>454</v>
-      </c>
-      <c r="D143" t="s">
-        <v>455</v>
       </c>
       <c r="E143" t="s">
         <v>20</v>
@@ -8047,7 +8214,7 @@
         <v>20</v>
       </c>
       <c r="I143" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L143" t="s">
         <v>47</v>
@@ -8056,7 +8223,7 @@
         <v>25</v>
       </c>
       <c r="P143" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="R143" t="s">
         <v>292</v>
@@ -8066,22 +8233,21 @@
         <v>qastat varchar (25),</v>
       </c>
     </row>
-    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C145" t="s">
+        <v>457</v>
+      </c>
+      <c r="D145" t="s">
         <v>458</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
+        <v>19</v>
+      </c>
+      <c r="I145" t="s">
         <v>459</v>
-      </c>
-      <c r="E145" t="s">
-        <v>19</v>
-      </c>
-      <c r="I145" t="s">
-        <v>460</v>
       </c>
       <c r="J145" t="s">
         <v>51</v>
@@ -8096,7 +8262,7 @@
         <v>20</v>
       </c>
       <c r="Q145" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="R145" t="s">
         <v>43</v>
@@ -8106,27 +8272,27 @@
         <v>qarjtagti integer,</v>
       </c>
     </row>
-    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C146" t="s">
+        <v>461</v>
+      </c>
+      <c r="D146" t="s">
+        <v>458</v>
+      </c>
+      <c r="E146" t="s">
+        <v>19</v>
+      </c>
+      <c r="I146" t="s">
         <v>462</v>
-      </c>
-      <c r="D146" t="s">
-        <v>459</v>
-      </c>
-      <c r="E146" t="s">
-        <v>19</v>
-      </c>
-      <c r="I146" t="s">
-        <v>463</v>
       </c>
       <c r="L146" t="s">
         <v>188</v>
       </c>
       <c r="Q146" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="R146" t="s">
         <v>189</v>
@@ -8136,21 +8302,21 @@
         <v>qarjtdti timestamp without time zone,</v>
       </c>
     </row>
-    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C147" t="s">
+        <v>463</v>
+      </c>
+      <c r="D147" t="s">
+        <v>458</v>
+      </c>
+      <c r="E147" t="s">
+        <v>19</v>
+      </c>
+      <c r="I147" t="s">
         <v>464</v>
-      </c>
-      <c r="D147" t="s">
-        <v>459</v>
-      </c>
-      <c r="E147" t="s">
-        <v>19</v>
-      </c>
-      <c r="I147" t="s">
-        <v>465</v>
       </c>
       <c r="J147" t="s">
         <v>51</v>
@@ -8165,7 +8331,7 @@
         <v>20</v>
       </c>
       <c r="Q147" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="R147" t="s">
         <v>43</v>
@@ -8175,27 +8341,27 @@
         <v>qarjtagtii integer,</v>
       </c>
     </row>
-    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C148" t="s">
+        <v>466</v>
+      </c>
+      <c r="D148" t="s">
+        <v>458</v>
+      </c>
+      <c r="E148" t="s">
+        <v>19</v>
+      </c>
+      <c r="I148" t="s">
         <v>467</v>
-      </c>
-      <c r="D148" t="s">
-        <v>459</v>
-      </c>
-      <c r="E148" t="s">
-        <v>19</v>
-      </c>
-      <c r="I148" t="s">
-        <v>468</v>
       </c>
       <c r="L148" t="s">
         <v>188</v>
       </c>
       <c r="Q148" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="R148" t="s">
         <v>189</v>
@@ -8205,21 +8371,21 @@
         <v>qarjtdtii timestamp without time zone,</v>
       </c>
     </row>
-    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C149" t="s">
+        <v>468</v>
+      </c>
+      <c r="D149" t="s">
         <v>469</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
+        <v>19</v>
+      </c>
+      <c r="I149" t="s">
         <v>470</v>
-      </c>
-      <c r="E149" t="s">
-        <v>19</v>
-      </c>
-      <c r="I149" t="s">
-        <v>471</v>
       </c>
       <c r="J149" t="s">
         <v>51</v>
@@ -8234,7 +8400,7 @@
         <v>20</v>
       </c>
       <c r="Q149" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="R149" t="s">
         <v>43</v>
@@ -8244,27 +8410,27 @@
         <v>qaacptagti integer,</v>
       </c>
     </row>
-    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C150" t="s">
+        <v>472</v>
+      </c>
+      <c r="D150" t="s">
+        <v>469</v>
+      </c>
+      <c r="E150" t="s">
+        <v>19</v>
+      </c>
+      <c r="I150" t="s">
         <v>473</v>
-      </c>
-      <c r="D150" t="s">
-        <v>470</v>
-      </c>
-      <c r="E150" t="s">
-        <v>19</v>
-      </c>
-      <c r="I150" t="s">
-        <v>474</v>
       </c>
       <c r="L150" t="s">
         <v>188</v>
       </c>
       <c r="Q150" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="R150" t="s">
         <v>189</v>
@@ -8274,21 +8440,21 @@
         <v>qaacptdti timestamp without time zone,</v>
       </c>
     </row>
-    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C151" t="s">
+        <v>474</v>
+      </c>
+      <c r="D151" t="s">
+        <v>469</v>
+      </c>
+      <c r="E151" t="s">
+        <v>19</v>
+      </c>
+      <c r="I151" t="s">
         <v>475</v>
-      </c>
-      <c r="D151" t="s">
-        <v>470</v>
-      </c>
-      <c r="E151" t="s">
-        <v>19</v>
-      </c>
-      <c r="I151" t="s">
-        <v>476</v>
       </c>
       <c r="J151" t="s">
         <v>51</v>
@@ -8303,7 +8469,7 @@
         <v>20</v>
       </c>
       <c r="Q151" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R151" t="s">
         <v>43</v>
@@ -8313,27 +8479,27 @@
         <v>qaacptagtii integer,</v>
       </c>
     </row>
-    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C152" t="s">
+        <v>477</v>
+      </c>
+      <c r="D152" t="s">
+        <v>469</v>
+      </c>
+      <c r="E152" t="s">
+        <v>19</v>
+      </c>
+      <c r="I152" t="s">
         <v>478</v>
-      </c>
-      <c r="D152" t="s">
-        <v>470</v>
-      </c>
-      <c r="E152" t="s">
-        <v>19</v>
-      </c>
-      <c r="I152" t="s">
-        <v>479</v>
       </c>
       <c r="L152" t="s">
         <v>188</v>
       </c>
       <c r="Q152" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R152" t="s">
         <v>189</v>
@@ -8343,21 +8509,21 @@
         <v>qaacptdtii timestamp without time zone,</v>
       </c>
     </row>
-    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C153" t="s">
+        <v>479</v>
+      </c>
+      <c r="D153" t="s">
         <v>480</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
+        <v>19</v>
+      </c>
+      <c r="I153" t="s">
         <v>481</v>
-      </c>
-      <c r="E153" t="s">
-        <v>19</v>
-      </c>
-      <c r="I153" t="s">
-        <v>482</v>
       </c>
       <c r="J153" t="s">
         <v>51</v>
@@ -8372,7 +8538,7 @@
         <v>20</v>
       </c>
       <c r="Q153" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="R153" t="s">
         <v>43</v>
@@ -8382,27 +8548,27 @@
         <v>qasvagti integer,</v>
       </c>
     </row>
-    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C154" t="s">
+        <v>483</v>
+      </c>
+      <c r="D154" t="s">
+        <v>480</v>
+      </c>
+      <c r="E154" t="s">
+        <v>19</v>
+      </c>
+      <c r="I154" t="s">
         <v>484</v>
-      </c>
-      <c r="D154" t="s">
-        <v>481</v>
-      </c>
-      <c r="E154" t="s">
-        <v>19</v>
-      </c>
-      <c r="I154" t="s">
-        <v>485</v>
       </c>
       <c r="L154" t="s">
         <v>188</v>
       </c>
       <c r="Q154" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="R154" t="s">
         <v>189</v>
@@ -8412,17 +8578,17 @@
         <v>qasvdti timestamp without time zone,</v>
       </c>
     </row>
-    <row r="155" spans="1:20" s="4" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:20" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>485</v>
+      </c>
+      <c r="C157" t="s">
         <v>486</v>
       </c>
-      <c r="C157" t="s">
-        <v>487</v>
-      </c>
       <c r="D157" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E157" t="s">
         <v>20</v>
@@ -8431,7 +8597,7 @@
         <v>56</v>
       </c>
       <c r="I157" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K157" s="3"/>
       <c r="L157" t="s">
@@ -8455,21 +8621,21 @@
         <v>dstat smallint check (dstat &gt;=0 and dstat &lt;=1),</v>
       </c>
     </row>
-    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C158" t="s">
+        <v>488</v>
+      </c>
+      <c r="D158" t="s">
         <v>489</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
+        <v>19</v>
+      </c>
+      <c r="I158" t="s">
         <v>490</v>
-      </c>
-      <c r="E158" t="s">
-        <v>19</v>
-      </c>
-      <c r="I158" t="s">
-        <v>491</v>
       </c>
       <c r="L158" t="s">
         <v>188</v>
@@ -8482,21 +8648,21 @@
         <v>dydti timestamp without time zone,</v>
       </c>
     </row>
-    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C159" t="s">
+        <v>491</v>
+      </c>
+      <c r="D159" t="s">
         <v>492</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
+        <v>19</v>
+      </c>
+      <c r="I159" t="s">
         <v>493</v>
-      </c>
-      <c r="E159" t="s">
-        <v>19</v>
-      </c>
-      <c r="I159" t="s">
-        <v>494</v>
       </c>
       <c r="L159" t="s">
         <v>22</v>
@@ -8512,21 +8678,21 @@
         <v>dyagti integer,</v>
       </c>
     </row>
-    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C160" t="s">
+        <v>494</v>
+      </c>
+      <c r="D160" t="s">
         <v>495</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
+        <v>19</v>
+      </c>
+      <c r="I160" t="s">
         <v>496</v>
-      </c>
-      <c r="E160" t="s">
-        <v>19</v>
-      </c>
-      <c r="I160" t="s">
-        <v>497</v>
       </c>
       <c r="K160" s="3"/>
       <c r="L160" t="s">
@@ -8547,38 +8713,28 @@
         <v>dytg smallint check (dytg &gt;=0 and dytg &lt;=1),</v>
       </c>
     </row>
-    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>29</v>
       </c>
       <c r="Q161" s="9"/>
       <c r="T161" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>29</v>
       </c>
       <c r="Q162" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="T162" t="s">
         <v>499</v>
       </c>
-      <c r="T162" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.35"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R166" xr:uid="{0533A871-86A0-4AD7-948B-2DF2F184C401}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="prospect"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R166" xr:uid="{0533A871-86A0-4AD7-948B-2DF2F184C401}"/>
   <conditionalFormatting sqref="I38 I28">
     <cfRule type="duplicateValues" dxfId="96" priority="91"/>
   </conditionalFormatting>
@@ -8872,5 +9028,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel_data/Book38.xlsx
+++ b/excel_data/Book38.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TME-1\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0011ADEC-5A52-4BF1-9449-23125664C601}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D4CC02-EB36-4B96-812D-EE3CC74D28C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BD099A39-A086-4377-802D-B27D655D95FF}"/>
   </bookViews>
@@ -283,9 +283,6 @@
     <t>Change tag to null on submit</t>
   </si>
   <si>
-    <t>null = new, 0 = needs to be reworked</t>
-  </si>
-  <si>
     <r>
       <t>To identify whether this record is new or old that needs to be reworked , identifier for retrieve record</t>
     </r>
@@ -1733,6 +1730,9 @@
   </si>
   <si>
     <t>1=yes, 0=Default</t>
+  </si>
+  <si>
+    <t>0 = new, 1 = needs to be reworked</t>
   </si>
 </sst>
 </file>
@@ -3165,8 +3165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BB87AE-BC89-4D1B-A655-CF0191129AC5}">
   <dimension ref="A1:T162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E88" zoomScale="70" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P104" sqref="P104"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3341,10 +3341,10 @@
         <v>32</v>
       </c>
       <c r="P4" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="R4" s="4" t="str">
         <f>"smallint check ("&amp;I4&amp;" &gt;=0 and "&amp;I4&amp;" &lt;=1),"</f>
@@ -3357,31 +3357,31 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" t="s">
         <v>38</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>39</v>
-      </c>
-      <c r="K5" t="s">
-        <v>40</v>
       </c>
       <c r="L5" t="s">
         <v>22</v>
@@ -3390,13 +3390,13 @@
         <v>20</v>
       </c>
       <c r="P5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>42</v>
-      </c>
-      <c r="R5" t="s">
-        <v>43</v>
       </c>
       <c r="T5" t="str">
         <f t="shared" si="0"/>
@@ -3405,28 +3405,28 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="8" t="s">
+      <c r="L6" t="s">
         <v>46</v>
-      </c>
-      <c r="L6" t="s">
-        <v>47</v>
       </c>
       <c r="M6">
         <v>100</v>
       </c>
       <c r="R6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T6" t="str">
         <f t="shared" si="0"/>
@@ -3435,31 +3435,31 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" t="s">
         <v>50</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>51</v>
-      </c>
-      <c r="K7" t="s">
-        <v>52</v>
       </c>
       <c r="L7" t="s">
         <v>22</v>
@@ -3468,13 +3468,13 @@
         <v>20</v>
       </c>
       <c r="P7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" t="s">
         <v>53</v>
       </c>
-      <c r="Q7" t="s">
-        <v>54</v>
-      </c>
       <c r="R7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="0"/>
@@ -3483,31 +3483,31 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
         <v>55</v>
       </c>
-      <c r="D8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M8">
         <v>10</v>
@@ -3516,13 +3516,13 @@
         <v>19</v>
       </c>
       <c r="P8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" t="s">
         <v>58</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>59</v>
-      </c>
-      <c r="R8" t="s">
-        <v>60</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="0"/>
@@ -3531,31 +3531,31 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
         <v>62</v>
       </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>63</v>
-      </c>
       <c r="L9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M9">
         <v>100</v>
@@ -3565,13 +3565,13 @@
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="R9" t="s">
         <v>64</v>
-      </c>
-      <c r="R9" t="s">
-        <v>65</v>
       </c>
       <c r="T9" t="str">
         <f t="shared" si="0"/>
@@ -3580,31 +3580,31 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>67</v>
-      </c>
       <c r="L10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M10">
         <v>100</v>
@@ -3614,13 +3614,13 @@
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="0"/>
@@ -3629,29 +3629,29 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M11">
         <v>100</v>
       </c>
       <c r="O11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="R11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T11" t="str">
         <f t="shared" si="0"/>
@@ -3660,31 +3660,31 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
         <v>73</v>
       </c>
-      <c r="D12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s">
-        <v>74</v>
-      </c>
       <c r="L12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M12">
         <v>150</v>
@@ -3693,13 +3693,13 @@
         <v>19</v>
       </c>
       <c r="P12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T12" t="str">
         <f t="shared" si="0"/>
@@ -3708,34 +3708,34 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
         <v>76</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
         <v>77</v>
       </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>78</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="L13" t="s">
         <v>27</v>
@@ -3744,16 +3744,16 @@
         <v>20</v>
       </c>
       <c r="O13" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" t="s">
         <v>81</v>
       </c>
-      <c r="P13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>82</v>
-      </c>
-      <c r="R13" t="s">
-        <v>83</v>
       </c>
       <c r="T13" t="str">
         <f t="shared" si="0"/>
@@ -3762,34 +3762,34 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
         <v>84</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
         <v>85</v>
       </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
         <v>86</v>
       </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>87</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="L14" t="s">
         <v>27</v>
@@ -3798,13 +3798,13 @@
         <v>20</v>
       </c>
       <c r="P14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T14" t="str">
         <f t="shared" si="0"/>
@@ -3813,31 +3813,31 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
         <v>91</v>
       </c>
-      <c r="D15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s">
-        <v>92</v>
-      </c>
       <c r="L15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M15">
         <v>150</v>
@@ -3846,10 +3846,10 @@
         <v>19</v>
       </c>
       <c r="Q15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="0"/>
@@ -3858,25 +3858,25 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
         <v>93</v>
-      </c>
-      <c r="D16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s">
-        <v>94</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" t="s">
@@ -3886,10 +3886,10 @@
         <v>19</v>
       </c>
       <c r="P16" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="R16" t="str">
         <f>"smallint check ("&amp;I16&amp;" &gt;=0 and "&amp;I16&amp;" &lt;=4),"</f>
@@ -3902,31 +3902,31 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
         <v>97</v>
       </c>
-      <c r="D17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s">
-        <v>98</v>
-      </c>
       <c r="L17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M17">
         <v>150</v>
@@ -3935,16 +3935,16 @@
         <v>19</v>
       </c>
       <c r="O17" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" t="s">
         <v>99</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>100</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>101</v>
-      </c>
-      <c r="R17" t="s">
-        <v>102</v>
       </c>
       <c r="T17" t="str">
         <f t="shared" si="0"/>
@@ -3953,28 +3953,28 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
         <v>103</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
         <v>104</v>
-      </c>
-      <c r="D18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s">
-        <v>105</v>
       </c>
       <c r="L18" t="s">
         <v>22</v>
@@ -3986,10 +3986,10 @@
         <v>19</v>
       </c>
       <c r="P18" t="s">
+        <v>105</v>
+      </c>
+      <c r="R18" t="s">
         <v>106</v>
-      </c>
-      <c r="R18" t="s">
-        <v>107</v>
       </c>
       <c r="T18" t="str">
         <f t="shared" si="0"/>
@@ -3998,28 +3998,28 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
         <v>108</v>
-      </c>
-      <c r="D19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s">
-        <v>109</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" t="s">
@@ -4029,10 +4029,10 @@
         <v>19</v>
       </c>
       <c r="P19" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="Q19" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="R19" t="str">
         <f>"smallint check ("&amp;I19&amp;" &gt;=0 and "&amp;I19&amp;" &lt;=1) not null,"</f>
@@ -4045,25 +4045,25 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
         <v>112</v>
-      </c>
-      <c r="D20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s">
-        <v>113</v>
       </c>
       <c r="L20" t="s">
         <v>22</v>
@@ -4072,13 +4072,13 @@
         <v>19</v>
       </c>
       <c r="P20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T20" t="str">
         <f t="shared" si="0"/>
@@ -4087,28 +4087,28 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
         <v>115</v>
       </c>
-      <c r="D21" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s">
-        <v>116</v>
-      </c>
       <c r="L21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M21">
         <v>50</v>
@@ -4117,13 +4117,13 @@
         <v>19</v>
       </c>
       <c r="P21" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q21" t="s">
         <v>117</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>118</v>
-      </c>
-      <c r="R21" t="s">
-        <v>119</v>
       </c>
       <c r="T21" t="str">
         <f t="shared" si="0"/>
@@ -4132,31 +4132,31 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
         <v>120</v>
       </c>
-      <c r="D22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s">
-        <v>121</v>
-      </c>
       <c r="L22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M22">
         <v>255</v>
@@ -4165,7 +4165,7 @@
         <v>19</v>
       </c>
       <c r="R22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T22" t="str">
         <f t="shared" si="0"/>
@@ -4174,31 +4174,31 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
         <v>123</v>
       </c>
-      <c r="D23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" t="s">
-        <v>124</v>
-      </c>
       <c r="L23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M23">
         <v>100</v>
@@ -4207,7 +4207,7 @@
         <v>19</v>
       </c>
       <c r="R23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T23" t="str">
         <f t="shared" si="0"/>
@@ -4216,31 +4216,31 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
         <v>125</v>
       </c>
-      <c r="D24" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" t="s">
-        <v>126</v>
-      </c>
       <c r="L24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M24">
         <v>100</v>
@@ -4249,7 +4249,7 @@
         <v>19</v>
       </c>
       <c r="R24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T24" t="str">
         <f t="shared" si="0"/>
@@ -4258,40 +4258,40 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
         <v>127</v>
       </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="L25" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25">
+        <v>20</v>
+      </c>
+      <c r="N25" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" t="s">
         <v>128</v>
-      </c>
-      <c r="L25" t="s">
-        <v>47</v>
-      </c>
-      <c r="M25">
-        <v>20</v>
-      </c>
-      <c r="N25" t="s">
-        <v>19</v>
-      </c>
-      <c r="R25" t="s">
-        <v>129</v>
       </c>
       <c r="T25" t="str">
         <f t="shared" si="0"/>
@@ -4300,34 +4300,34 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
         <v>130</v>
       </c>
-      <c r="D26" t="s">
+      <c r="J26" t="s">
+        <v>131</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="E26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J26" t="s">
-        <v>132</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="L26" t="s">
         <v>27</v>
@@ -4336,7 +4336,7 @@
         <v>20</v>
       </c>
       <c r="R26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T26" t="str">
         <f t="shared" si="0"/>
@@ -4345,34 +4345,34 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
         <v>133</v>
       </c>
-      <c r="D27" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>134</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="L27" t="s">
         <v>27</v>
@@ -4381,7 +4381,7 @@
         <v>20</v>
       </c>
       <c r="R27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T27" t="str">
         <f t="shared" si="0"/>
@@ -4390,34 +4390,34 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
         <v>137</v>
       </c>
-      <c r="D28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>138</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>139</v>
-      </c>
-      <c r="K28" t="s">
-        <v>140</v>
       </c>
       <c r="L28" t="s">
         <v>22</v>
@@ -4426,10 +4426,10 @@
         <v>20</v>
       </c>
       <c r="Q28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T28" t="str">
         <f t="shared" si="0"/>
@@ -4438,34 +4438,34 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
         <v>141</v>
       </c>
-      <c r="D29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>142</v>
       </c>
-      <c r="J29" t="s">
-        <v>143</v>
-      </c>
       <c r="K29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L29" t="s">
         <v>22</v>
@@ -4474,10 +4474,10 @@
         <v>20</v>
       </c>
       <c r="Q29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T29" t="str">
         <f t="shared" si="0"/>
@@ -4486,25 +4486,25 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
         <v>145</v>
-      </c>
-      <c r="D30" t="s">
-        <v>145</v>
-      </c>
-      <c r="E30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" t="s">
-        <v>146</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" t="s">
@@ -4514,10 +4514,10 @@
         <v>19</v>
       </c>
       <c r="P30" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q30" t="s">
         <v>147</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>148</v>
       </c>
       <c r="R30" t="str">
         <f>"smallint check ("&amp;I30&amp;" &gt;=0 and "&amp;I30&amp;" &lt;=4),"</f>
@@ -4530,25 +4530,25 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
         <v>149</v>
-      </c>
-      <c r="D31" t="s">
-        <v>149</v>
-      </c>
-      <c r="E31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" t="s">
-        <v>150</v>
       </c>
       <c r="L31" t="s">
         <v>22</v>
@@ -4557,13 +4557,13 @@
         <v>19</v>
       </c>
       <c r="P31" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q31" t="s">
         <v>151</v>
       </c>
-      <c r="Q31" t="s">
-        <v>152</v>
-      </c>
       <c r="R31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T31" t="str">
         <f t="shared" si="0"/>
@@ -4572,25 +4572,25 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s">
         <v>153</v>
-      </c>
-      <c r="D32" t="s">
-        <v>153</v>
-      </c>
-      <c r="E32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" t="s">
-        <v>154</v>
       </c>
       <c r="L32" t="s">
         <v>22</v>
@@ -4599,7 +4599,7 @@
         <v>19</v>
       </c>
       <c r="R32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T32" t="str">
         <f t="shared" si="0"/>
@@ -4608,25 +4608,25 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" t="s">
         <v>155</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s">
         <v>156</v>
-      </c>
-      <c r="E33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" t="s">
-        <v>157</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" t="s">
@@ -4636,7 +4636,7 @@
         <v>19</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R33" t="str">
         <f>"smallint check ("&amp;I33&amp;" &gt;=0 and "&amp;I33&amp;" &lt;=4),"</f>
@@ -4649,31 +4649,31 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s">
         <v>159</v>
       </c>
-      <c r="D34" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>160</v>
       </c>
-      <c r="J34" t="s">
-        <v>161</v>
-      </c>
       <c r="K34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L34" t="s">
         <v>22</v>
@@ -4682,10 +4682,10 @@
         <v>20</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T34" t="str">
         <f t="shared" si="0"/>
@@ -4694,31 +4694,31 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s">
         <v>163</v>
       </c>
-      <c r="D35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" t="s">
-        <v>164</v>
-      </c>
       <c r="L35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M35">
         <v>255</v>
@@ -4727,7 +4727,7 @@
         <v>19</v>
       </c>
       <c r="R35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T35" t="str">
         <f t="shared" si="0"/>
@@ -4736,31 +4736,31 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s">
         <v>165</v>
       </c>
-      <c r="D36" t="s">
-        <v>165</v>
-      </c>
-      <c r="E36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" t="s">
-        <v>166</v>
-      </c>
       <c r="L36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M36">
         <v>800</v>
@@ -4769,14 +4769,14 @@
         <v>19</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P36" s="9"/>
       <c r="Q36" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="R36" t="s">
         <v>168</v>
-      </c>
-      <c r="R36" t="s">
-        <v>169</v>
       </c>
       <c r="T36" t="str">
         <f t="shared" si="0"/>
@@ -4785,31 +4785,31 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
         <v>170</v>
       </c>
-      <c r="D37" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" t="s">
-        <v>171</v>
-      </c>
       <c r="L37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M37">
         <v>800</v>
@@ -4818,7 +4818,7 @@
         <v>19</v>
       </c>
       <c r="R37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T37" t="str">
         <f t="shared" si="0"/>
@@ -4827,31 +4827,31 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s">
         <v>173</v>
       </c>
-      <c r="D38" t="s">
-        <v>173</v>
-      </c>
-      <c r="E38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" t="s">
-        <v>62</v>
-      </c>
-      <c r="G38" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" t="s">
-        <v>174</v>
-      </c>
       <c r="L38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M38">
         <v>800</v>
@@ -4860,10 +4860,10 @@
         <v>19</v>
       </c>
       <c r="Q38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T38" t="str">
         <f t="shared" si="0"/>
@@ -4872,31 +4872,31 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s">
         <v>176</v>
       </c>
-      <c r="D39" t="s">
-        <v>176</v>
-      </c>
-      <c r="E39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" t="s">
-        <v>177</v>
-      </c>
       <c r="L39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M39">
         <v>800</v>
@@ -4905,10 +4905,10 @@
         <v>19</v>
       </c>
       <c r="Q39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T39" t="str">
         <f t="shared" si="0"/>
@@ -4917,28 +4917,28 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" t="s">
         <v>179</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s">
         <v>180</v>
       </c>
-      <c r="E40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" t="s">
-        <v>181</v>
-      </c>
       <c r="L40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M40">
         <v>800</v>
@@ -4947,7 +4947,7 @@
         <v>19</v>
       </c>
       <c r="R40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T40" t="str">
         <f t="shared" si="0"/>
@@ -4956,25 +4956,25 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" t="s">
         <v>183</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s">
         <v>184</v>
       </c>
-      <c r="E42" t="s">
-        <v>19</v>
-      </c>
-      <c r="I42" t="s">
-        <v>185</v>
-      </c>
       <c r="J42" t="s">
+        <v>50</v>
+      </c>
+      <c r="K42" t="s">
         <v>51</v>
-      </c>
-      <c r="K42" t="s">
-        <v>52</v>
       </c>
       <c r="L42" t="s">
         <v>22</v>
@@ -4983,7 +4983,7 @@
         <v>20</v>
       </c>
       <c r="R42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T42" t="str">
         <f t="shared" ref="T42:T52" si="1">I42&amp;" "&amp;R42</f>
@@ -4992,25 +4992,25 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s">
         <v>186</v>
       </c>
-      <c r="D43" t="s">
-        <v>184</v>
-      </c>
-      <c r="E43" t="s">
-        <v>19</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="L43" t="s">
         <v>187</v>
       </c>
-      <c r="L43" t="s">
+      <c r="R43" t="s">
         <v>188</v>
-      </c>
-      <c r="R43" t="s">
-        <v>189</v>
       </c>
       <c r="T43" t="str">
         <f t="shared" si="1"/>
@@ -5019,25 +5019,25 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" t="s">
         <v>190</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s">
         <v>191</v>
       </c>
-      <c r="E44" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" t="s">
-        <v>192</v>
-      </c>
       <c r="J44" t="s">
+        <v>50</v>
+      </c>
+      <c r="K44" t="s">
         <v>51</v>
-      </c>
-      <c r="K44" t="s">
-        <v>52</v>
       </c>
       <c r="L44" t="s">
         <v>22</v>
@@ -5046,10 +5046,10 @@
         <v>20</v>
       </c>
       <c r="Q44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T44" t="str">
         <f t="shared" si="1"/>
@@ -5058,28 +5058,28 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" t="s">
+        <v>190</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s">
         <v>194</v>
       </c>
-      <c r="D45" t="s">
-        <v>191</v>
-      </c>
-      <c r="E45" t="s">
-        <v>19</v>
-      </c>
-      <c r="I45" t="s">
-        <v>195</v>
-      </c>
       <c r="L45" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>192</v>
+      </c>
+      <c r="R45" t="s">
         <v>188</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>193</v>
-      </c>
-      <c r="R45" t="s">
-        <v>189</v>
       </c>
       <c r="T45" t="str">
         <f t="shared" si="1"/>
@@ -5088,25 +5088,25 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s">
         <v>196</v>
       </c>
-      <c r="D46" t="s">
-        <v>191</v>
-      </c>
-      <c r="E46" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" t="s">
-        <v>197</v>
-      </c>
       <c r="J46" t="s">
+        <v>50</v>
+      </c>
+      <c r="K46" t="s">
         <v>51</v>
-      </c>
-      <c r="K46" t="s">
-        <v>52</v>
       </c>
       <c r="L46" t="s">
         <v>22</v>
@@ -5115,10 +5115,10 @@
         <v>20</v>
       </c>
       <c r="P46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T46" t="str">
         <f t="shared" si="1"/>
@@ -5127,28 +5127,28 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C47" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s">
         <v>199</v>
       </c>
-      <c r="D47" t="s">
-        <v>191</v>
-      </c>
-      <c r="E47" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" t="s">
-        <v>200</v>
-      </c>
       <c r="L47" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>197</v>
+      </c>
+      <c r="R47" t="s">
         <v>188</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>198</v>
-      </c>
-      <c r="R47" t="s">
-        <v>189</v>
       </c>
       <c r="T47" t="str">
         <f t="shared" si="1"/>
@@ -5157,31 +5157,31 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
+        <v>200</v>
+      </c>
+      <c r="D48" t="s">
         <v>201</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
         <v>202</v>
       </c>
-      <c r="E48" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="I48" t="s">
         <v>203</v>
-      </c>
-      <c r="I48" t="s">
-        <v>204</v>
       </c>
       <c r="L48" t="s">
         <v>22</v>
       </c>
       <c r="P48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T48" t="str">
         <f t="shared" si="1"/>
@@ -5190,10 +5190,10 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D49" t="s">
         <v>16</v>
@@ -5202,22 +5202,22 @@
         <v>20</v>
       </c>
       <c r="F49" t="s">
+        <v>206</v>
+      </c>
+      <c r="I49" t="s">
         <v>207</v>
       </c>
-      <c r="I49" t="s">
-        <v>208</v>
-      </c>
       <c r="L49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M49">
         <v>255</v>
       </c>
       <c r="P49" t="s">
+        <v>208</v>
+      </c>
+      <c r="R49" t="s">
         <v>209</v>
-      </c>
-      <c r="R49" t="s">
-        <v>210</v>
       </c>
       <c r="T49" t="str">
         <f t="shared" si="1"/>
@@ -5226,19 +5226,19 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C50" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" t="s">
         <v>211</v>
-      </c>
-      <c r="E50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" t="s">
-        <v>212</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" t="s">
@@ -5248,7 +5248,7 @@
         <v>19</v>
       </c>
       <c r="P50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R50" t="str">
         <f>"smallint check ("&amp;I50&amp;" &gt;=0 and "&amp;I50&amp;" &lt;=2),"</f>
@@ -5261,16 +5261,16 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C51" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s">
         <v>214</v>
-      </c>
-      <c r="E51" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" t="s">
-        <v>215</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" t="s">
@@ -5280,10 +5280,10 @@
         <v>19</v>
       </c>
       <c r="P51" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q51" t="s">
         <v>216</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>217</v>
       </c>
       <c r="R51" t="str">
         <f t="shared" ref="R51:R52" si="2">"smallint check ("&amp;I51&amp;" &gt;=0 and "&amp;I51&amp;" &lt;=1),"</f>
@@ -5296,16 +5296,16 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C52" t="s">
+        <v>217</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" t="s">
         <v>218</v>
-      </c>
-      <c r="E52" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" t="s">
-        <v>219</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" t="s">
@@ -5315,7 +5315,7 @@
         <v>19</v>
       </c>
       <c r="P52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R52" t="str">
         <f t="shared" si="2"/>
@@ -5330,22 +5330,22 @@
     <row r="54" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" t="s">
         <v>221</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s">
         <v>222</v>
       </c>
-      <c r="E55" t="s">
-        <v>19</v>
-      </c>
-      <c r="I55" t="s">
-        <v>223</v>
-      </c>
       <c r="J55" t="s">
+        <v>50</v>
+      </c>
+      <c r="K55" t="s">
         <v>51</v>
-      </c>
-      <c r="K55" t="s">
-        <v>52</v>
       </c>
       <c r="L55" t="s">
         <v>22</v>
@@ -5354,10 +5354,10 @@
         <v>20</v>
       </c>
       <c r="Q55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T55" t="str">
         <f t="shared" ref="T55:T68" si="3">I55&amp;" "&amp;R55</f>
@@ -5366,25 +5366,25 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C56" t="s">
+        <v>223</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s">
         <v>224</v>
       </c>
-      <c r="E56" t="s">
-        <v>19</v>
-      </c>
-      <c r="I56" t="s">
-        <v>225</v>
-      </c>
       <c r="L56" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>192</v>
+      </c>
+      <c r="R56" t="s">
         <v>188</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>193</v>
-      </c>
-      <c r="R56" t="s">
-        <v>189</v>
       </c>
       <c r="T56" t="str">
         <f t="shared" si="3"/>
@@ -5393,22 +5393,22 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C57" t="s">
+        <v>225</v>
+      </c>
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" t="s">
         <v>226</v>
       </c>
-      <c r="E57" t="s">
-        <v>19</v>
-      </c>
-      <c r="I57" t="s">
-        <v>227</v>
-      </c>
       <c r="J57" t="s">
+        <v>50</v>
+      </c>
+      <c r="K57" t="s">
         <v>51</v>
-      </c>
-      <c r="K57" t="s">
-        <v>52</v>
       </c>
       <c r="L57" t="s">
         <v>22</v>
@@ -5417,10 +5417,10 @@
         <v>20</v>
       </c>
       <c r="Q57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T57" t="str">
         <f t="shared" si="3"/>
@@ -5429,25 +5429,25 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C58" t="s">
+        <v>228</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s">
         <v>229</v>
       </c>
-      <c r="E58" t="s">
-        <v>19</v>
-      </c>
-      <c r="I58" t="s">
-        <v>230</v>
-      </c>
       <c r="L58" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>227</v>
+      </c>
+      <c r="R58" t="s">
         <v>188</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>228</v>
-      </c>
-      <c r="R58" t="s">
-        <v>189</v>
       </c>
       <c r="T58" t="str">
         <f t="shared" si="3"/>
@@ -5456,25 +5456,25 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C59" t="s">
+        <v>230</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s">
         <v>231</v>
       </c>
-      <c r="E59" t="s">
-        <v>19</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="L59" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q59" t="s">
         <v>232</v>
       </c>
-      <c r="L59" t="s">
+      <c r="R59" t="s">
         <v>188</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>233</v>
-      </c>
-      <c r="R59" t="s">
-        <v>189</v>
       </c>
       <c r="T59" t="str">
         <f t="shared" si="3"/>
@@ -5483,22 +5483,22 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C60" t="s">
+        <v>233</v>
+      </c>
+      <c r="E60" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s">
         <v>234</v>
       </c>
-      <c r="E60" t="s">
-        <v>19</v>
-      </c>
-      <c r="I60" t="s">
-        <v>235</v>
-      </c>
       <c r="J60" t="s">
+        <v>50</v>
+      </c>
+      <c r="K60" t="s">
         <v>51</v>
-      </c>
-      <c r="K60" t="s">
-        <v>52</v>
       </c>
       <c r="L60" t="s">
         <v>22</v>
@@ -5507,10 +5507,10 @@
         <v>20</v>
       </c>
       <c r="Q60" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T60" t="str">
         <f t="shared" si="3"/>
@@ -5519,25 +5519,25 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C61" t="s">
+        <v>235</v>
+      </c>
+      <c r="E61" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" t="s">
         <v>236</v>
       </c>
-      <c r="E61" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="L61" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q61" t="s">
         <v>237</v>
       </c>
-      <c r="L61" t="s">
+      <c r="R61" t="s">
         <v>188</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>238</v>
-      </c>
-      <c r="R61" t="s">
-        <v>189</v>
       </c>
       <c r="T61" t="str">
         <f t="shared" si="3"/>
@@ -5546,22 +5546,22 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C62" t="s">
+        <v>238</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s">
         <v>239</v>
       </c>
-      <c r="E62" t="s">
-        <v>19</v>
-      </c>
-      <c r="I62" t="s">
-        <v>240</v>
-      </c>
       <c r="J62" t="s">
+        <v>50</v>
+      </c>
+      <c r="K62" t="s">
         <v>51</v>
-      </c>
-      <c r="K62" t="s">
-        <v>52</v>
       </c>
       <c r="L62" t="s">
         <v>22</v>
@@ -5570,10 +5570,10 @@
         <v>20</v>
       </c>
       <c r="Q62" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T62" t="str">
         <f t="shared" si="3"/>
@@ -5582,16 +5582,16 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C63" t="s">
+        <v>240</v>
+      </c>
+      <c r="E63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" t="s">
         <v>241</v>
-      </c>
-      <c r="E63" t="s">
-        <v>19</v>
-      </c>
-      <c r="I63" t="s">
-        <v>242</v>
       </c>
       <c r="L63" t="s">
         <v>27</v>
@@ -5600,7 +5600,7 @@
         <v>19</v>
       </c>
       <c r="P63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R63" t="str">
         <f>"smallint check ("&amp;I63&amp;" &gt;=0 and "&amp;I63&amp;" &lt;=3),"</f>
@@ -5613,16 +5613,16 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C64" t="s">
+        <v>243</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" t="s">
         <v>244</v>
-      </c>
-      <c r="E64" t="s">
-        <v>19</v>
-      </c>
-      <c r="I64" t="s">
-        <v>245</v>
       </c>
       <c r="L64" t="s">
         <v>27</v>
@@ -5631,7 +5631,7 @@
         <v>19</v>
       </c>
       <c r="P64" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R64" t="str">
         <f>"smallint check ("&amp;I64&amp;" &gt;=0 and "&amp;I64&amp;" &lt;=3),"</f>
@@ -5644,28 +5644,28 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C65" t="s">
+        <v>245</v>
+      </c>
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" t="s">
         <v>246</v>
       </c>
-      <c r="E65" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="I65" t="s">
         <v>247</v>
       </c>
-      <c r="I65" t="s">
-        <v>248</v>
-      </c>
       <c r="L65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M65">
         <v>100</v>
       </c>
       <c r="R65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T65" t="str">
         <f t="shared" si="3"/>
@@ -5674,10 +5674,10 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D66" t="s">
         <v>16</v>
@@ -5686,19 +5686,19 @@
         <v>20</v>
       </c>
       <c r="F66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M66">
         <v>255</v>
       </c>
       <c r="R66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T66" t="str">
         <f t="shared" si="3"/>
@@ -5707,19 +5707,19 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C67" t="s">
+        <v>249</v>
+      </c>
+      <c r="E67" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" t="s">
+        <v>202</v>
+      </c>
+      <c r="I67" t="s">
         <v>250</v>
-      </c>
-      <c r="E67" t="s">
-        <v>20</v>
-      </c>
-      <c r="F67" t="s">
-        <v>203</v>
-      </c>
-      <c r="I67" t="s">
-        <v>251</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" t="s">
@@ -5729,7 +5729,7 @@
         <v>19</v>
       </c>
       <c r="P67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R67" t="str">
         <f>"smallint check ("&amp;I67&amp;" &gt;=0 and "&amp;I67&amp;" &lt;=2),"</f>
@@ -5742,16 +5742,16 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C68" t="s">
+        <v>252</v>
+      </c>
+      <c r="E68" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" t="s">
         <v>253</v>
-      </c>
-      <c r="E68" t="s">
-        <v>19</v>
-      </c>
-      <c r="I68" t="s">
-        <v>254</v>
       </c>
       <c r="K68" s="3"/>
       <c r="L68" t="s">
@@ -5761,7 +5761,7 @@
         <v>19</v>
       </c>
       <c r="P68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R68" t="str">
         <f>"smallint check ("&amp;I68&amp;" &gt;=0 and "&amp;I68&amp;" &lt;=1),"</f>
@@ -5776,28 +5776,28 @@
     <row r="70" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>254</v>
+      </c>
+      <c r="C71" t="s">
         <v>255</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>256</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" t="s">
+        <v>55</v>
+      </c>
+      <c r="H71" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" t="s">
         <v>257</v>
       </c>
-      <c r="E71" t="s">
-        <v>20</v>
-      </c>
-      <c r="F71" t="s">
-        <v>56</v>
-      </c>
-      <c r="H71" t="s">
-        <v>20</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="K71" t="s">
         <v>258</v>
-      </c>
-      <c r="K71" t="s">
-        <v>259</v>
       </c>
       <c r="L71" t="s">
         <v>27</v>
@@ -5809,10 +5809,10 @@
         <v>20</v>
       </c>
       <c r="P71" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q71" t="s">
         <v>260</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>261</v>
       </c>
       <c r="R71" t="str">
         <f>"smallint check ("&amp;I71&amp;" &gt;=0 and "&amp;I71&amp;" &lt;=6) not null,"</f>
@@ -5825,25 +5825,25 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C72" t="s">
+        <v>261</v>
+      </c>
+      <c r="D72" t="s">
         <v>262</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" t="s">
+        <v>55</v>
+      </c>
+      <c r="H72" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" t="s">
         <v>263</v>
-      </c>
-      <c r="E72" t="s">
-        <v>20</v>
-      </c>
-      <c r="F72" t="s">
-        <v>56</v>
-      </c>
-      <c r="H72" t="s">
-        <v>20</v>
-      </c>
-      <c r="I72" t="s">
-        <v>264</v>
       </c>
       <c r="K72" s="3"/>
       <c r="L72" t="s">
@@ -5853,7 +5853,7 @@
         <v>19</v>
       </c>
       <c r="P72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R72" t="str">
         <f>"smallint check ("&amp;I72&amp;" &gt;=0 and "&amp;I72&amp;" &lt;=1) not null,"</f>
@@ -5866,31 +5866,31 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C73" t="s">
+        <v>265</v>
+      </c>
+      <c r="D73" t="s">
         <v>266</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" t="s">
+        <v>61</v>
+      </c>
+      <c r="G73" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" t="s">
         <v>267</v>
       </c>
-      <c r="E73" t="s">
-        <v>20</v>
-      </c>
-      <c r="F73" t="s">
-        <v>62</v>
-      </c>
-      <c r="G73" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" t="s">
-        <v>20</v>
-      </c>
-      <c r="I73" t="s">
-        <v>268</v>
-      </c>
       <c r="L73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M73">
         <v>150</v>
@@ -5899,10 +5899,10 @@
         <v>19</v>
       </c>
       <c r="O73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T73" t="str">
         <f t="shared" si="4"/>
@@ -5911,25 +5911,25 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C74" t="s">
+        <v>268</v>
+      </c>
+      <c r="E74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" t="s">
         <v>269</v>
       </c>
-      <c r="E74" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="I74" t="s">
         <v>270</v>
       </c>
-      <c r="I74" t="s">
-        <v>271</v>
-      </c>
       <c r="J74" t="s">
+        <v>50</v>
+      </c>
+      <c r="K74" t="s">
         <v>51</v>
-      </c>
-      <c r="K74" t="s">
-        <v>52</v>
       </c>
       <c r="L74" t="s">
         <v>22</v>
@@ -5938,10 +5938,10 @@
         <v>20</v>
       </c>
       <c r="Q74" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T74" t="str">
         <f t="shared" si="4"/>
@@ -5950,28 +5950,28 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C75" t="s">
+        <v>272</v>
+      </c>
+      <c r="E75" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" t="s">
         <v>273</v>
       </c>
-      <c r="E75" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="I75" t="s">
         <v>274</v>
       </c>
-      <c r="I75" t="s">
-        <v>275</v>
-      </c>
       <c r="L75" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>271</v>
+      </c>
+      <c r="R75" t="s">
         <v>188</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>272</v>
-      </c>
-      <c r="R75" t="s">
-        <v>189</v>
       </c>
       <c r="T75" t="str">
         <f t="shared" si="4"/>
@@ -5980,25 +5980,25 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C76" t="s">
+        <v>275</v>
+      </c>
+      <c r="E76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" t="s">
+        <v>269</v>
+      </c>
+      <c r="I76" t="s">
         <v>276</v>
       </c>
-      <c r="E76" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" t="s">
-        <v>270</v>
-      </c>
-      <c r="I76" t="s">
-        <v>277</v>
-      </c>
       <c r="J76" t="s">
+        <v>50</v>
+      </c>
+      <c r="K76" t="s">
         <v>51</v>
-      </c>
-      <c r="K76" t="s">
-        <v>52</v>
       </c>
       <c r="L76" t="s">
         <v>22</v>
@@ -6007,10 +6007,10 @@
         <v>20</v>
       </c>
       <c r="Q76" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T76" t="str">
         <f t="shared" si="4"/>
@@ -6019,28 +6019,28 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C77" t="s">
+        <v>278</v>
+      </c>
+      <c r="E77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" t="s">
+        <v>273</v>
+      </c>
+      <c r="I77" t="s">
         <v>279</v>
       </c>
-      <c r="E77" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" t="s">
-        <v>274</v>
-      </c>
-      <c r="I77" t="s">
-        <v>280</v>
-      </c>
       <c r="L77" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>277</v>
+      </c>
+      <c r="R77" t="s">
         <v>188</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>278</v>
-      </c>
-      <c r="R77" t="s">
-        <v>189</v>
       </c>
       <c r="T77" t="str">
         <f t="shared" si="4"/>
@@ -6049,19 +6049,19 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C78" t="s">
+        <v>280</v>
+      </c>
+      <c r="D78" t="s">
         <v>281</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" t="s">
         <v>282</v>
-      </c>
-      <c r="E78" t="s">
-        <v>19</v>
-      </c>
-      <c r="I78" t="s">
-        <v>283</v>
       </c>
       <c r="K78" s="3"/>
       <c r="L78" t="s">
@@ -6071,7 +6071,7 @@
         <v>19</v>
       </c>
       <c r="P78" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R78" t="str">
         <f>"smallint check ("&amp;I78&amp;" &gt;=0 and "&amp;I78&amp;" &lt;=2),"</f>
@@ -6084,19 +6084,19 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C79" t="s">
+        <v>284</v>
+      </c>
+      <c r="E79" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" t="s">
+        <v>202</v>
+      </c>
+      <c r="I79" t="s">
         <v>285</v>
-      </c>
-      <c r="E79" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" t="s">
-        <v>203</v>
-      </c>
-      <c r="I79" t="s">
-        <v>286</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" t="s">
@@ -6106,7 +6106,7 @@
         <v>19</v>
       </c>
       <c r="P79" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R79" t="str">
         <f>"smallint check ("&amp;I79&amp;" &gt;=0 and "&amp;I79&amp;" &lt;=1),"</f>
@@ -6121,37 +6121,37 @@
     <row r="81" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>286</v>
+      </c>
+      <c r="C82" t="s">
         <v>287</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>287</v>
+      </c>
+      <c r="E82" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" t="s">
+        <v>55</v>
+      </c>
+      <c r="I82" t="s">
         <v>288</v>
       </c>
-      <c r="D82" t="s">
-        <v>288</v>
-      </c>
-      <c r="E82" t="s">
-        <v>20</v>
-      </c>
-      <c r="F82" t="s">
-        <v>56</v>
-      </c>
-      <c r="I82" t="s">
-        <v>289</v>
-      </c>
       <c r="L82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M82">
         <v>25</v>
       </c>
       <c r="P82" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q82" t="s">
         <v>290</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="R82" t="s">
         <v>291</v>
-      </c>
-      <c r="R82" t="s">
-        <v>292</v>
       </c>
       <c r="T82" t="str">
         <f t="shared" ref="T82:T109" si="5">I82&amp;" "&amp;R82</f>
@@ -6160,22 +6160,22 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C83" t="s">
+        <v>292</v>
+      </c>
+      <c r="D83" t="s">
+        <v>292</v>
+      </c>
+      <c r="E83" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" t="s">
+        <v>55</v>
+      </c>
+      <c r="I83" t="s">
         <v>293</v>
-      </c>
-      <c r="D83" t="s">
-        <v>293</v>
-      </c>
-      <c r="E83" t="s">
-        <v>20</v>
-      </c>
-      <c r="F83" t="s">
-        <v>56</v>
-      </c>
-      <c r="I83" t="s">
-        <v>294</v>
       </c>
       <c r="K83" s="3"/>
       <c r="L83" t="s">
@@ -6185,7 +6185,7 @@
         <v>19</v>
       </c>
       <c r="P83" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R83" t="str">
         <f>"smallint check ("&amp;I83&amp;" &gt;=0 and "&amp;I83&amp;" &lt;=2),"</f>
@@ -6198,25 +6198,25 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C84" t="s">
+        <v>295</v>
+      </c>
+      <c r="D84" t="s">
+        <v>295</v>
+      </c>
+      <c r="E84" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" t="s">
+        <v>55</v>
+      </c>
+      <c r="H84" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" t="s">
         <v>296</v>
-      </c>
-      <c r="D84" t="s">
-        <v>296</v>
-      </c>
-      <c r="E84" t="s">
-        <v>20</v>
-      </c>
-      <c r="F84" t="s">
-        <v>56</v>
-      </c>
-      <c r="H84" t="s">
-        <v>20</v>
-      </c>
-      <c r="I84" t="s">
-        <v>297</v>
       </c>
       <c r="K84" s="3"/>
       <c r="L84" t="s">
@@ -6226,7 +6226,7 @@
         <v>19</v>
       </c>
       <c r="P84" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R84" t="str">
         <f t="shared" ref="R84:R86" si="6">"smallint check ("&amp;I84&amp;" &gt;=0 and "&amp;I84&amp;" &lt;=1) not null,"</f>
@@ -6239,25 +6239,25 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C85" t="s">
+        <v>298</v>
+      </c>
+      <c r="D85" t="s">
+        <v>298</v>
+      </c>
+      <c r="E85" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" t="s">
         <v>299</v>
       </c>
-      <c r="D85" t="s">
-        <v>299</v>
-      </c>
-      <c r="E85" t="s">
-        <v>20</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="H85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" t="s">
         <v>300</v>
-      </c>
-      <c r="H85" t="s">
-        <v>20</v>
-      </c>
-      <c r="I85" t="s">
-        <v>301</v>
       </c>
       <c r="K85" s="3"/>
       <c r="L85" t="s">
@@ -6267,7 +6267,7 @@
         <v>19</v>
       </c>
       <c r="P85" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R85" t="str">
         <f t="shared" si="6"/>
@@ -6280,25 +6280,25 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>302</v>
+      </c>
+      <c r="C86" t="s">
         <v>303</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>303</v>
+      </c>
+      <c r="E86" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" t="s">
+        <v>55</v>
+      </c>
+      <c r="H86" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" t="s">
         <v>304</v>
-      </c>
-      <c r="D86" t="s">
-        <v>304</v>
-      </c>
-      <c r="E86" t="s">
-        <v>20</v>
-      </c>
-      <c r="F86" t="s">
-        <v>56</v>
-      </c>
-      <c r="H86" t="s">
-        <v>20</v>
-      </c>
-      <c r="I86" t="s">
-        <v>305</v>
       </c>
       <c r="K86" s="3"/>
       <c r="L86" t="s">
@@ -6308,10 +6308,10 @@
         <v>19</v>
       </c>
       <c r="P86" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q86" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R86" t="str">
         <f t="shared" si="6"/>
@@ -6324,31 +6324,31 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C87" t="s">
+        <v>306</v>
+      </c>
+      <c r="D87" t="s">
         <v>307</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
+        <v>20</v>
+      </c>
+      <c r="F87" t="s">
+        <v>61</v>
+      </c>
+      <c r="I87" t="s">
         <v>308</v>
       </c>
-      <c r="E87" t="s">
-        <v>20</v>
-      </c>
-      <c r="F87" t="s">
-        <v>62</v>
-      </c>
-      <c r="I87" t="s">
-        <v>309</v>
-      </c>
       <c r="L87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M87">
         <v>255</v>
       </c>
       <c r="R87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T87" t="str">
         <f t="shared" si="5"/>
@@ -6357,34 +6357,34 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C88" t="s">
+        <v>309</v>
+      </c>
+      <c r="D88" t="s">
         <v>310</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
+        <v>20</v>
+      </c>
+      <c r="F88" t="s">
         <v>311</v>
       </c>
-      <c r="E88" t="s">
-        <v>20</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="I88" t="s">
         <v>312</v>
       </c>
-      <c r="I88" t="s">
-        <v>313</v>
-      </c>
       <c r="L88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M88">
         <v>100</v>
       </c>
       <c r="Q88" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T88" t="str">
         <f t="shared" si="5"/>
@@ -6393,25 +6393,25 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C89" t="s">
+        <v>314</v>
+      </c>
+      <c r="D89" t="s">
         <v>315</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" t="s">
         <v>316</v>
       </c>
-      <c r="E89" t="s">
-        <v>20</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89" t="s">
         <v>317</v>
-      </c>
-      <c r="G89" t="s">
-        <v>20</v>
-      </c>
-      <c r="I89" t="s">
-        <v>318</v>
       </c>
       <c r="K89" s="3"/>
       <c r="L89" t="s">
@@ -6421,7 +6421,7 @@
         <v>19</v>
       </c>
       <c r="P89" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R89" t="str">
         <f>"smallint check ("&amp;I89&amp;" &gt;=0 and "&amp;I89&amp;" &lt;=1),"</f>
@@ -6434,25 +6434,25 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C90" t="s">
+        <v>318</v>
+      </c>
+      <c r="D90" t="s">
+        <v>318</v>
+      </c>
+      <c r="E90" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" t="s">
+        <v>61</v>
+      </c>
+      <c r="G90" t="s">
+        <v>20</v>
+      </c>
+      <c r="I90" t="s">
         <v>319</v>
-      </c>
-      <c r="D90" t="s">
-        <v>319</v>
-      </c>
-      <c r="E90" t="s">
-        <v>20</v>
-      </c>
-      <c r="F90" t="s">
-        <v>62</v>
-      </c>
-      <c r="G90" t="s">
-        <v>20</v>
-      </c>
-      <c r="I90" t="s">
-        <v>320</v>
       </c>
       <c r="L90" t="s">
         <v>22</v>
@@ -6461,13 +6461,13 @@
         <v>19</v>
       </c>
       <c r="P90" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q90" t="s">
         <v>321</v>
       </c>
-      <c r="Q90" t="s">
-        <v>322</v>
-      </c>
       <c r="R90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T90" t="str">
         <f t="shared" si="5"/>
@@ -6476,28 +6476,28 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C91" t="s">
+        <v>322</v>
+      </c>
+      <c r="D91" t="s">
+        <v>322</v>
+      </c>
+      <c r="E91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" t="s">
         <v>323</v>
       </c>
-      <c r="D91" t="s">
-        <v>323</v>
-      </c>
-      <c r="E91" t="s">
-        <v>20</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="I91" t="s">
         <v>324</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>325</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="L91" t="s">
         <v>27</v>
@@ -6506,10 +6506,10 @@
         <v>20</v>
       </c>
       <c r="P91" t="s">
+        <v>327</v>
+      </c>
+      <c r="R91" t="s">
         <v>328</v>
-      </c>
-      <c r="R91" t="s">
-        <v>329</v>
       </c>
       <c r="T91" t="str">
         <f t="shared" si="5"/>
@@ -6518,31 +6518,31 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C92" t="s">
+        <v>329</v>
+      </c>
+      <c r="D92" t="s">
+        <v>329</v>
+      </c>
+      <c r="E92" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92" t="s">
+        <v>61</v>
+      </c>
+      <c r="I92" t="s">
         <v>330</v>
       </c>
-      <c r="D92" t="s">
-        <v>330</v>
-      </c>
-      <c r="E92" t="s">
-        <v>20</v>
-      </c>
-      <c r="F92" t="s">
-        <v>62</v>
-      </c>
-      <c r="I92" t="s">
-        <v>331</v>
-      </c>
       <c r="L92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M92">
         <v>800</v>
       </c>
       <c r="R92" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T92" t="str">
         <f t="shared" si="5"/>
@@ -6551,31 +6551,31 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C93" t="s">
+        <v>331</v>
+      </c>
+      <c r="D93" t="s">
+        <v>331</v>
+      </c>
+      <c r="E93" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93" t="s">
+        <v>61</v>
+      </c>
+      <c r="I93" t="s">
         <v>332</v>
       </c>
-      <c r="D93" t="s">
-        <v>332</v>
-      </c>
-      <c r="E93" t="s">
-        <v>20</v>
-      </c>
-      <c r="F93" t="s">
-        <v>62</v>
-      </c>
-      <c r="I93" t="s">
-        <v>333</v>
-      </c>
       <c r="L93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M93">
         <v>800</v>
       </c>
       <c r="R93" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T93" t="str">
         <f t="shared" si="5"/>
@@ -6584,31 +6584,31 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C94" t="s">
+        <v>333</v>
+      </c>
+      <c r="D94" t="s">
+        <v>333</v>
+      </c>
+      <c r="E94" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94" t="s">
+        <v>61</v>
+      </c>
+      <c r="I94" t="s">
         <v>334</v>
       </c>
-      <c r="D94" t="s">
-        <v>334</v>
-      </c>
-      <c r="E94" t="s">
-        <v>20</v>
-      </c>
-      <c r="F94" t="s">
-        <v>62</v>
-      </c>
-      <c r="I94" t="s">
-        <v>335</v>
-      </c>
       <c r="L94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M94">
         <v>800</v>
       </c>
       <c r="R94" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T94" t="str">
         <f t="shared" si="5"/>
@@ -6617,31 +6617,31 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C95" t="s">
+        <v>335</v>
+      </c>
+      <c r="D95" t="s">
+        <v>335</v>
+      </c>
+      <c r="E95" t="s">
+        <v>20</v>
+      </c>
+      <c r="F95" t="s">
+        <v>61</v>
+      </c>
+      <c r="I95" t="s">
         <v>336</v>
       </c>
-      <c r="D95" t="s">
-        <v>336</v>
-      </c>
-      <c r="E95" t="s">
-        <v>20</v>
-      </c>
-      <c r="F95" t="s">
-        <v>62</v>
-      </c>
-      <c r="I95" t="s">
-        <v>337</v>
-      </c>
       <c r="L95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M95">
         <v>800</v>
       </c>
       <c r="R95" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T95" t="str">
         <f t="shared" si="5"/>
@@ -6650,31 +6650,31 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C96" t="s">
+        <v>337</v>
+      </c>
+      <c r="D96" t="s">
+        <v>337</v>
+      </c>
+      <c r="E96" t="s">
+        <v>20</v>
+      </c>
+      <c r="F96" t="s">
+        <v>61</v>
+      </c>
+      <c r="I96" t="s">
         <v>338</v>
       </c>
-      <c r="D96" t="s">
-        <v>338</v>
-      </c>
-      <c r="E96" t="s">
-        <v>20</v>
-      </c>
-      <c r="F96" t="s">
-        <v>62</v>
-      </c>
-      <c r="I96" t="s">
-        <v>339</v>
-      </c>
       <c r="L96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M96">
         <v>800</v>
       </c>
       <c r="R96" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T96" t="str">
         <f t="shared" si="5"/>
@@ -6683,31 +6683,31 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C97" t="s">
+        <v>339</v>
+      </c>
+      <c r="D97" t="s">
+        <v>339</v>
+      </c>
+      <c r="E97" t="s">
+        <v>20</v>
+      </c>
+      <c r="F97" t="s">
+        <v>61</v>
+      </c>
+      <c r="I97" t="s">
         <v>340</v>
       </c>
-      <c r="D97" t="s">
-        <v>340</v>
-      </c>
-      <c r="E97" t="s">
-        <v>20</v>
-      </c>
-      <c r="F97" t="s">
-        <v>62</v>
-      </c>
-      <c r="I97" t="s">
-        <v>341</v>
-      </c>
       <c r="L97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M97">
         <v>800</v>
       </c>
       <c r="R97" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T97" t="str">
         <f t="shared" si="5"/>
@@ -6716,31 +6716,31 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C98" t="s">
+        <v>341</v>
+      </c>
+      <c r="D98" t="s">
+        <v>341</v>
+      </c>
+      <c r="E98" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98" t="s">
+        <v>61</v>
+      </c>
+      <c r="I98" t="s">
         <v>342</v>
       </c>
-      <c r="D98" t="s">
-        <v>342</v>
-      </c>
-      <c r="E98" t="s">
-        <v>20</v>
-      </c>
-      <c r="F98" t="s">
-        <v>62</v>
-      </c>
-      <c r="I98" t="s">
-        <v>343</v>
-      </c>
       <c r="L98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M98">
         <v>800</v>
       </c>
       <c r="R98" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T98" t="str">
         <f t="shared" si="5"/>
@@ -6749,31 +6749,31 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C99" t="s">
+        <v>343</v>
+      </c>
+      <c r="D99" t="s">
+        <v>343</v>
+      </c>
+      <c r="E99" t="s">
+        <v>20</v>
+      </c>
+      <c r="F99" t="s">
+        <v>61</v>
+      </c>
+      <c r="I99" t="s">
         <v>344</v>
       </c>
-      <c r="D99" t="s">
-        <v>344</v>
-      </c>
-      <c r="E99" t="s">
-        <v>20</v>
-      </c>
-      <c r="F99" t="s">
-        <v>62</v>
-      </c>
-      <c r="I99" t="s">
-        <v>345</v>
-      </c>
       <c r="L99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M99">
         <v>800</v>
       </c>
       <c r="R99" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T99" t="str">
         <f t="shared" si="5"/>
@@ -6782,31 +6782,31 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C100" t="s">
+        <v>345</v>
+      </c>
+      <c r="D100" t="s">
+        <v>345</v>
+      </c>
+      <c r="E100" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" t="s">
+        <v>61</v>
+      </c>
+      <c r="I100" t="s">
         <v>346</v>
       </c>
-      <c r="D100" t="s">
-        <v>346</v>
-      </c>
-      <c r="E100" t="s">
-        <v>20</v>
-      </c>
-      <c r="F100" t="s">
-        <v>62</v>
-      </c>
-      <c r="I100" t="s">
-        <v>347</v>
-      </c>
       <c r="L100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M100">
         <v>800</v>
       </c>
       <c r="R100" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T100" t="str">
         <f t="shared" si="5"/>
@@ -6815,31 +6815,31 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C101" t="s">
+        <v>347</v>
+      </c>
+      <c r="D101" t="s">
+        <v>347</v>
+      </c>
+      <c r="E101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F101" t="s">
+        <v>61</v>
+      </c>
+      <c r="I101" t="s">
         <v>348</v>
       </c>
-      <c r="D101" t="s">
-        <v>348</v>
-      </c>
-      <c r="E101" t="s">
-        <v>20</v>
-      </c>
-      <c r="F101" t="s">
-        <v>62</v>
-      </c>
-      <c r="I101" t="s">
-        <v>349</v>
-      </c>
       <c r="L101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M101">
         <v>800</v>
       </c>
       <c r="R101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T101" t="str">
         <f t="shared" si="5"/>
@@ -6848,31 +6848,31 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C102" t="s">
+        <v>349</v>
+      </c>
+      <c r="D102" t="s">
+        <v>349</v>
+      </c>
+      <c r="E102" t="s">
+        <v>20</v>
+      </c>
+      <c r="F102" t="s">
+        <v>61</v>
+      </c>
+      <c r="I102" t="s">
         <v>350</v>
       </c>
-      <c r="D102" t="s">
-        <v>350</v>
-      </c>
-      <c r="E102" t="s">
-        <v>20</v>
-      </c>
-      <c r="F102" t="s">
-        <v>62</v>
-      </c>
-      <c r="I102" t="s">
-        <v>351</v>
-      </c>
       <c r="L102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M102">
         <v>800</v>
       </c>
       <c r="R102" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T102" t="str">
         <f t="shared" si="5"/>
@@ -6881,31 +6881,31 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C103" t="s">
+        <v>351</v>
+      </c>
+      <c r="D103" t="s">
+        <v>351</v>
+      </c>
+      <c r="E103" t="s">
+        <v>20</v>
+      </c>
+      <c r="F103" t="s">
+        <v>61</v>
+      </c>
+      <c r="I103" t="s">
         <v>352</v>
       </c>
-      <c r="D103" t="s">
-        <v>352</v>
-      </c>
-      <c r="E103" t="s">
-        <v>20</v>
-      </c>
-      <c r="F103" t="s">
-        <v>62</v>
-      </c>
-      <c r="I103" t="s">
-        <v>353</v>
-      </c>
       <c r="L103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M103">
         <v>800</v>
       </c>
       <c r="R103" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T103" t="str">
         <f t="shared" si="5"/>
@@ -6914,25 +6914,25 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C104" t="s">
+        <v>353</v>
+      </c>
+      <c r="D104" t="s">
+        <v>353</v>
+      </c>
+      <c r="E104" t="s">
+        <v>20</v>
+      </c>
+      <c r="F104" t="s">
         <v>354</v>
       </c>
-      <c r="D104" t="s">
-        <v>354</v>
-      </c>
-      <c r="E104" t="s">
-        <v>20</v>
-      </c>
-      <c r="F104" t="s">
+      <c r="H104" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104" t="s">
         <v>355</v>
-      </c>
-      <c r="H104" t="s">
-        <v>20</v>
-      </c>
-      <c r="I104" t="s">
-        <v>356</v>
       </c>
       <c r="K104" s="3"/>
       <c r="L104" t="s">
@@ -6942,10 +6942,10 @@
         <v>19</v>
       </c>
       <c r="P104" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q104" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R104" t="str">
         <f t="shared" ref="R104:R107" si="7">"smallint check ("&amp;I104&amp;" &gt;=0 and "&amp;I104&amp;" &lt;=1) not null,"</f>
@@ -6958,25 +6958,25 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C105" t="s">
+        <v>356</v>
+      </c>
+      <c r="D105" t="s">
+        <v>356</v>
+      </c>
+      <c r="E105" t="s">
+        <v>20</v>
+      </c>
+      <c r="F105" t="s">
+        <v>354</v>
+      </c>
+      <c r="H105" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" t="s">
         <v>357</v>
-      </c>
-      <c r="D105" t="s">
-        <v>357</v>
-      </c>
-      <c r="E105" t="s">
-        <v>20</v>
-      </c>
-      <c r="F105" t="s">
-        <v>355</v>
-      </c>
-      <c r="H105" t="s">
-        <v>20</v>
-      </c>
-      <c r="I105" t="s">
-        <v>358</v>
       </c>
       <c r="K105" s="3"/>
       <c r="L105" t="s">
@@ -6986,10 +6986,10 @@
         <v>19</v>
       </c>
       <c r="P105" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q105" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R105" t="str">
         <f t="shared" si="7"/>
@@ -7002,25 +7002,25 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C106" t="s">
+        <v>358</v>
+      </c>
+      <c r="D106" t="s">
+        <v>358</v>
+      </c>
+      <c r="E106" t="s">
+        <v>20</v>
+      </c>
+      <c r="F106" t="s">
+        <v>299</v>
+      </c>
+      <c r="H106" t="s">
+        <v>20</v>
+      </c>
+      <c r="I106" t="s">
         <v>359</v>
-      </c>
-      <c r="D106" t="s">
-        <v>359</v>
-      </c>
-      <c r="E106" t="s">
-        <v>20</v>
-      </c>
-      <c r="F106" t="s">
-        <v>300</v>
-      </c>
-      <c r="H106" t="s">
-        <v>20</v>
-      </c>
-      <c r="I106" t="s">
-        <v>360</v>
       </c>
       <c r="K106" s="3"/>
       <c r="L106" t="s">
@@ -7030,10 +7030,10 @@
         <v>19</v>
       </c>
       <c r="P106" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q106" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R106" t="str">
         <f t="shared" si="7"/>
@@ -7046,25 +7046,25 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C107" t="s">
+        <v>361</v>
+      </c>
+      <c r="D107" t="s">
+        <v>361</v>
+      </c>
+      <c r="E107" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107" t="s">
+        <v>354</v>
+      </c>
+      <c r="H107" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" t="s">
         <v>362</v>
-      </c>
-      <c r="D107" t="s">
-        <v>362</v>
-      </c>
-      <c r="E107" t="s">
-        <v>20</v>
-      </c>
-      <c r="F107" t="s">
-        <v>355</v>
-      </c>
-      <c r="H107" t="s">
-        <v>20</v>
-      </c>
-      <c r="I107" t="s">
-        <v>363</v>
       </c>
       <c r="K107" s="3"/>
       <c r="L107" t="s">
@@ -7074,10 +7074,10 @@
         <v>19</v>
       </c>
       <c r="P107" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q107" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R107" t="str">
         <f t="shared" si="7"/>
@@ -7090,22 +7090,22 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C108" t="s">
+        <v>363</v>
+      </c>
+      <c r="D108" t="s">
+        <v>363</v>
+      </c>
+      <c r="E108" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108" t="s">
+        <v>354</v>
+      </c>
+      <c r="I108" t="s">
         <v>364</v>
-      </c>
-      <c r="D108" t="s">
-        <v>364</v>
-      </c>
-      <c r="E108" t="s">
-        <v>20</v>
-      </c>
-      <c r="F108" t="s">
-        <v>355</v>
-      </c>
-      <c r="I108" t="s">
-        <v>365</v>
       </c>
       <c r="K108" s="3"/>
       <c r="L108" t="s">
@@ -7115,7 +7115,7 @@
         <v>19</v>
       </c>
       <c r="P108" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="R108" t="str">
         <f t="shared" ref="R108:R109" si="8">"smallint check ("&amp;I108&amp;" &gt;=0 and "&amp;I108&amp;" &lt;=1),"</f>
@@ -7128,22 +7128,22 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>365</v>
+      </c>
+      <c r="C109" t="s">
         <v>366</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
+        <v>366</v>
+      </c>
+      <c r="E109" t="s">
+        <v>20</v>
+      </c>
+      <c r="F109" t="s">
+        <v>354</v>
+      </c>
+      <c r="I109" t="s">
         <v>367</v>
-      </c>
-      <c r="D109" t="s">
-        <v>367</v>
-      </c>
-      <c r="E109" t="s">
-        <v>20</v>
-      </c>
-      <c r="F109" t="s">
-        <v>355</v>
-      </c>
-      <c r="I109" t="s">
-        <v>368</v>
       </c>
       <c r="K109" s="3"/>
       <c r="L109" t="s">
@@ -7153,7 +7153,7 @@
         <v>19</v>
       </c>
       <c r="P109" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="R109" t="str">
         <f t="shared" si="8"/>
@@ -7166,25 +7166,25 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C111" t="s">
+        <v>368</v>
+      </c>
+      <c r="D111" t="s">
         <v>369</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" t="s">
         <v>370</v>
       </c>
-      <c r="E111" t="s">
-        <v>19</v>
-      </c>
-      <c r="I111" t="s">
-        <v>371</v>
-      </c>
       <c r="J111" t="s">
+        <v>50</v>
+      </c>
+      <c r="K111" t="s">
         <v>51</v>
-      </c>
-      <c r="K111" t="s">
-        <v>52</v>
       </c>
       <c r="L111" t="s">
         <v>22</v>
@@ -7193,7 +7193,7 @@
         <v>20</v>
       </c>
       <c r="R111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T111" t="str">
         <f t="shared" ref="T111:T126" si="9">I111&amp;" "&amp;R111</f>
@@ -7202,25 +7202,25 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C112" t="s">
+        <v>371</v>
+      </c>
+      <c r="D112" t="s">
+        <v>369</v>
+      </c>
+      <c r="E112" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112" t="s">
         <v>372</v>
       </c>
-      <c r="D112" t="s">
-        <v>370</v>
-      </c>
-      <c r="E112" t="s">
-        <v>19</v>
-      </c>
-      <c r="I112" t="s">
-        <v>373</v>
-      </c>
       <c r="L112" t="s">
+        <v>187</v>
+      </c>
+      <c r="R112" t="s">
         <v>188</v>
-      </c>
-      <c r="R112" t="s">
-        <v>189</v>
       </c>
       <c r="T112" t="str">
         <f t="shared" si="9"/>
@@ -7229,22 +7229,22 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C113" t="s">
+        <v>373</v>
+      </c>
+      <c r="D113" t="s">
         <v>374</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
+        <v>20</v>
+      </c>
+      <c r="F113" t="s">
+        <v>202</v>
+      </c>
+      <c r="I113" t="s">
         <v>375</v>
-      </c>
-      <c r="E113" t="s">
-        <v>20</v>
-      </c>
-      <c r="F113" t="s">
-        <v>203</v>
-      </c>
-      <c r="I113" t="s">
-        <v>376</v>
       </c>
       <c r="K113" s="3"/>
       <c r="L113" t="s">
@@ -7254,7 +7254,7 @@
         <v>19</v>
       </c>
       <c r="P113" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R113" t="str">
         <f>"smallint check ("&amp;I113&amp;" &gt;=0 and "&amp;I113&amp;" &lt;=1),"</f>
@@ -7267,25 +7267,25 @@
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C114" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D114" t="s">
+        <v>377</v>
+      </c>
+      <c r="E114" t="s">
+        <v>19</v>
+      </c>
+      <c r="I114" t="s">
         <v>378</v>
       </c>
-      <c r="E114" t="s">
-        <v>19</v>
-      </c>
-      <c r="I114" t="s">
-        <v>379</v>
-      </c>
       <c r="J114" t="s">
+        <v>50</v>
+      </c>
+      <c r="K114" t="s">
         <v>51</v>
-      </c>
-      <c r="K114" t="s">
-        <v>52</v>
       </c>
       <c r="L114" t="s">
         <v>22</v>
@@ -7294,10 +7294,10 @@
         <v>20</v>
       </c>
       <c r="Q114" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="R114" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T114" t="str">
         <f t="shared" si="9"/>
@@ -7306,28 +7306,28 @@
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C115" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D115" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E115" t="s">
         <v>19</v>
       </c>
       <c r="I115" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L115" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>379</v>
+      </c>
+      <c r="R115" t="s">
         <v>188</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>380</v>
-      </c>
-      <c r="R115" t="s">
-        <v>189</v>
       </c>
       <c r="T115" t="str">
         <f t="shared" si="9"/>
@@ -7336,25 +7336,25 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C116" t="s">
+        <v>381</v>
+      </c>
+      <c r="D116" t="s">
+        <v>377</v>
+      </c>
+      <c r="E116" t="s">
+        <v>19</v>
+      </c>
+      <c r="I116" t="s">
         <v>382</v>
       </c>
-      <c r="D116" t="s">
-        <v>378</v>
-      </c>
-      <c r="E116" t="s">
-        <v>19</v>
-      </c>
-      <c r="I116" t="s">
-        <v>383</v>
-      </c>
       <c r="J116" t="s">
+        <v>50</v>
+      </c>
+      <c r="K116" t="s">
         <v>51</v>
-      </c>
-      <c r="K116" t="s">
-        <v>52</v>
       </c>
       <c r="L116" t="s">
         <v>22</v>
@@ -7363,10 +7363,10 @@
         <v>20</v>
       </c>
       <c r="Q116" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="R116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T116" t="str">
         <f t="shared" si="9"/>
@@ -7375,28 +7375,28 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C117" t="s">
+        <v>384</v>
+      </c>
+      <c r="D117" t="s">
+        <v>377</v>
+      </c>
+      <c r="E117" t="s">
+        <v>19</v>
+      </c>
+      <c r="I117" t="s">
         <v>385</v>
       </c>
-      <c r="D117" t="s">
-        <v>378</v>
-      </c>
-      <c r="E117" t="s">
-        <v>19</v>
-      </c>
-      <c r="I117" t="s">
-        <v>386</v>
-      </c>
       <c r="L117" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>383</v>
+      </c>
+      <c r="R117" t="s">
         <v>188</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>384</v>
-      </c>
-      <c r="R117" t="s">
-        <v>189</v>
       </c>
       <c r="T117" t="str">
         <f t="shared" si="9"/>
@@ -7405,25 +7405,25 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C118" t="s">
+        <v>386</v>
+      </c>
+      <c r="D118" t="s">
         <v>387</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
+        <v>19</v>
+      </c>
+      <c r="I118" t="s">
         <v>388</v>
       </c>
-      <c r="E118" t="s">
-        <v>19</v>
-      </c>
-      <c r="I118" t="s">
-        <v>389</v>
-      </c>
       <c r="J118" t="s">
+        <v>50</v>
+      </c>
+      <c r="K118" t="s">
         <v>51</v>
-      </c>
-      <c r="K118" t="s">
-        <v>52</v>
       </c>
       <c r="L118" t="s">
         <v>22</v>
@@ -7432,10 +7432,10 @@
         <v>20</v>
       </c>
       <c r="Q118" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T118" t="str">
         <f t="shared" si="9"/>
@@ -7444,28 +7444,28 @@
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C119" t="s">
+        <v>390</v>
+      </c>
+      <c r="D119" t="s">
+        <v>387</v>
+      </c>
+      <c r="E119" t="s">
+        <v>19</v>
+      </c>
+      <c r="I119" t="s">
         <v>391</v>
       </c>
-      <c r="D119" t="s">
-        <v>388</v>
-      </c>
-      <c r="E119" t="s">
-        <v>19</v>
-      </c>
-      <c r="I119" t="s">
-        <v>392</v>
-      </c>
       <c r="L119" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>389</v>
+      </c>
+      <c r="R119" t="s">
         <v>188</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>390</v>
-      </c>
-      <c r="R119" t="s">
-        <v>189</v>
       </c>
       <c r="T119" t="str">
         <f t="shared" si="9"/>
@@ -7474,25 +7474,25 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C120" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D120" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E120" t="s">
         <v>19</v>
       </c>
       <c r="I120" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J120" t="s">
+        <v>50</v>
+      </c>
+      <c r="K120" t="s">
         <v>51</v>
-      </c>
-      <c r="K120" t="s">
-        <v>52</v>
       </c>
       <c r="L120" t="s">
         <v>22</v>
@@ -7501,10 +7501,10 @@
         <v>20</v>
       </c>
       <c r="Q120" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T120" t="str">
         <f t="shared" si="9"/>
@@ -7513,28 +7513,28 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C121" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D121" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E121" t="s">
         <v>19</v>
       </c>
       <c r="I121" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L121" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>393</v>
+      </c>
+      <c r="R121" t="s">
         <v>188</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>394</v>
-      </c>
-      <c r="R121" t="s">
-        <v>189</v>
       </c>
       <c r="T121" t="str">
         <f t="shared" si="9"/>
@@ -7543,22 +7543,22 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C122" t="s">
+        <v>395</v>
+      </c>
+      <c r="D122" t="s">
         <v>396</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
+        <v>20</v>
+      </c>
+      <c r="F122" t="s">
+        <v>202</v>
+      </c>
+      <c r="I122" t="s">
         <v>397</v>
-      </c>
-      <c r="E122" t="s">
-        <v>20</v>
-      </c>
-      <c r="F122" t="s">
-        <v>203</v>
-      </c>
-      <c r="I122" t="s">
-        <v>398</v>
       </c>
       <c r="K122" s="3"/>
       <c r="L122" s="9" t="s">
@@ -7568,7 +7568,7 @@
         <v>19</v>
       </c>
       <c r="P122" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R122" t="str">
         <f t="shared" ref="R122:R123" si="10">"smallint check ("&amp;I122&amp;" &gt;=0 and "&amp;I122&amp;" &lt;=4),"</f>
@@ -7581,22 +7581,22 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C123" t="s">
+        <v>399</v>
+      </c>
+      <c r="D123" t="s">
         <v>400</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F123" t="s">
+        <v>202</v>
+      </c>
+      <c r="I123" t="s">
         <v>401</v>
-      </c>
-      <c r="E123" t="s">
-        <v>20</v>
-      </c>
-      <c r="F123" t="s">
-        <v>203</v>
-      </c>
-      <c r="I123" t="s">
-        <v>402</v>
       </c>
       <c r="K123" s="3"/>
       <c r="L123" t="s">
@@ -7606,7 +7606,7 @@
         <v>19</v>
       </c>
       <c r="P123" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="R123" t="str">
         <f t="shared" si="10"/>
@@ -7619,19 +7619,19 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C124" t="s">
+        <v>403</v>
+      </c>
+      <c r="D124" t="s">
         <v>404</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
+        <v>19</v>
+      </c>
+      <c r="I124" t="s">
         <v>405</v>
-      </c>
-      <c r="E124" t="s">
-        <v>19</v>
-      </c>
-      <c r="I124" t="s">
-        <v>406</v>
       </c>
       <c r="K124" s="3"/>
       <c r="L124" t="s">
@@ -7641,10 +7641,10 @@
         <v>19</v>
       </c>
       <c r="O124" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P124" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="R124" t="str">
         <f>"smallint check ("&amp;I124&amp;" &gt;=0 and "&amp;I124&amp;" &lt;=2),"</f>
@@ -7657,19 +7657,19 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C125" t="s">
+        <v>407</v>
+      </c>
+      <c r="D125" t="s">
         <v>408</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
+        <v>19</v>
+      </c>
+      <c r="I125" t="s">
         <v>409</v>
-      </c>
-      <c r="E125" t="s">
-        <v>19</v>
-      </c>
-      <c r="I125" t="s">
-        <v>410</v>
       </c>
       <c r="K125" s="3"/>
       <c r="L125" t="s">
@@ -7679,13 +7679,13 @@
         <v>19</v>
       </c>
       <c r="O125" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P125" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q125" t="s">
         <v>216</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>217</v>
       </c>
       <c r="R125" t="str">
         <f t="shared" ref="R125:R126" si="11">"smallint check ("&amp;I125&amp;" &gt;=0 and "&amp;I125&amp;" &lt;=1),"</f>
@@ -7698,19 +7698,19 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C126" t="s">
+        <v>410</v>
+      </c>
+      <c r="E126" t="s">
+        <v>19</v>
+      </c>
+      <c r="F126" t="s">
+        <v>202</v>
+      </c>
+      <c r="I126" t="s">
         <v>411</v>
-      </c>
-      <c r="E126" t="s">
-        <v>19</v>
-      </c>
-      <c r="F126" t="s">
-        <v>203</v>
-      </c>
-      <c r="I126" t="s">
-        <v>412</v>
       </c>
       <c r="K126" s="3"/>
       <c r="L126" t="s">
@@ -7720,7 +7720,7 @@
         <v>19</v>
       </c>
       <c r="P126" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R126" t="str">
         <f t="shared" si="11"/>
@@ -7735,19 +7735,19 @@
     <row r="128" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C129" t="s">
+        <v>412</v>
+      </c>
+      <c r="D129" t="s">
         <v>413</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
+        <v>19</v>
+      </c>
+      <c r="I129" t="s">
         <v>414</v>
-      </c>
-      <c r="E129" t="s">
-        <v>19</v>
-      </c>
-      <c r="I129" t="s">
-        <v>415</v>
       </c>
       <c r="L129" t="s">
         <v>22</v>
@@ -7756,7 +7756,7 @@
         <v>20</v>
       </c>
       <c r="R129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T129" t="str">
         <f t="shared" ref="T129:T134" si="12">I129&amp;" "&amp;R129</f>
@@ -7765,25 +7765,25 @@
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C130" t="s">
+        <v>415</v>
+      </c>
+      <c r="D130" t="s">
         <v>416</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
+        <v>19</v>
+      </c>
+      <c r="I130" t="s">
         <v>417</v>
       </c>
-      <c r="E130" t="s">
-        <v>19</v>
-      </c>
-      <c r="I130" t="s">
-        <v>418</v>
-      </c>
       <c r="L130" t="s">
+        <v>187</v>
+      </c>
+      <c r="R130" t="s">
         <v>188</v>
-      </c>
-      <c r="R130" t="s">
-        <v>189</v>
       </c>
       <c r="T130" t="str">
         <f t="shared" si="12"/>
@@ -7792,31 +7792,31 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C131" t="s">
+        <v>418</v>
+      </c>
+      <c r="D131" t="s">
         <v>419</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
+        <v>20</v>
+      </c>
+      <c r="F131" t="s">
+        <v>61</v>
+      </c>
+      <c r="I131" t="s">
         <v>420</v>
       </c>
-      <c r="E131" t="s">
-        <v>20</v>
-      </c>
-      <c r="F131" t="s">
-        <v>62</v>
-      </c>
-      <c r="I131" t="s">
-        <v>421</v>
-      </c>
       <c r="L131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M131">
         <v>255</v>
       </c>
       <c r="R131" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T131" t="str">
         <f t="shared" si="12"/>
@@ -7825,25 +7825,25 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>421</v>
+      </c>
+      <c r="C132" t="s">
         <v>422</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>423</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
+        <v>20</v>
+      </c>
+      <c r="F132" t="s">
+        <v>299</v>
+      </c>
+      <c r="H132" t="s">
+        <v>20</v>
+      </c>
+      <c r="I132" t="s">
         <v>424</v>
-      </c>
-      <c r="E132" t="s">
-        <v>20</v>
-      </c>
-      <c r="F132" t="s">
-        <v>300</v>
-      </c>
-      <c r="H132" t="s">
-        <v>20</v>
-      </c>
-      <c r="I132" t="s">
-        <v>425</v>
       </c>
       <c r="K132" s="3"/>
       <c r="L132" t="s">
@@ -7853,10 +7853,10 @@
         <v>19</v>
       </c>
       <c r="P132" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q132" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R132" t="str">
         <f>"smallint check ("&amp;I132&amp;" &gt;=0 and "&amp;I132&amp;" &lt;=1) not null,"</f>
@@ -7869,25 +7869,25 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C133" t="s">
+        <v>425</v>
+      </c>
+      <c r="D133" t="s">
+        <v>425</v>
+      </c>
+      <c r="E133" t="s">
+        <v>20</v>
+      </c>
+      <c r="F133" t="s">
+        <v>316</v>
+      </c>
+      <c r="G133" t="s">
+        <v>20</v>
+      </c>
+      <c r="I133" s="8" t="s">
         <v>426</v>
-      </c>
-      <c r="D133" t="s">
-        <v>426</v>
-      </c>
-      <c r="E133" t="s">
-        <v>20</v>
-      </c>
-      <c r="F133" t="s">
-        <v>317</v>
-      </c>
-      <c r="G133" t="s">
-        <v>20</v>
-      </c>
-      <c r="I133" s="8" t="s">
-        <v>427</v>
       </c>
       <c r="K133" s="3"/>
       <c r="L133" t="s">
@@ -7897,10 +7897,10 @@
         <v>19</v>
       </c>
       <c r="P133" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q133" t="s">
         <v>428</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>429</v>
       </c>
       <c r="R133" t="str">
         <f t="shared" ref="R133:R134" si="13">"smallint check ("&amp;I133&amp;" &gt;=0 and "&amp;I133&amp;" &lt;=1),"</f>
@@ -7913,19 +7913,19 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C134" t="s">
+        <v>429</v>
+      </c>
+      <c r="E134" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134" t="s">
+        <v>202</v>
+      </c>
+      <c r="I134" t="s">
         <v>430</v>
-      </c>
-      <c r="E134" t="s">
-        <v>19</v>
-      </c>
-      <c r="F134" t="s">
-        <v>203</v>
-      </c>
-      <c r="I134" t="s">
-        <v>431</v>
       </c>
       <c r="K134" s="3"/>
       <c r="L134" t="s">
@@ -7935,7 +7935,7 @@
         <v>19</v>
       </c>
       <c r="P134" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R134" t="str">
         <f t="shared" si="13"/>
@@ -7950,22 +7950,22 @@
     <row r="136" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>431</v>
+      </c>
+      <c r="C137" t="s">
         <v>432</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>433</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
+        <v>19</v>
+      </c>
+      <c r="G137" t="s">
+        <v>20</v>
+      </c>
+      <c r="I137" t="s">
         <v>434</v>
-      </c>
-      <c r="E137" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" t="s">
-        <v>20</v>
-      </c>
-      <c r="I137" t="s">
-        <v>435</v>
       </c>
       <c r="K137" s="3"/>
       <c r="L137" t="s">
@@ -7975,7 +7975,7 @@
         <v>19</v>
       </c>
       <c r="P137" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="R137" t="str">
         <f t="shared" ref="R137:R142" si="14">"smallint check ("&amp;I137&amp;" &gt;=0 and "&amp;I137&amp;" &lt;=1),"</f>
@@ -7988,25 +7988,25 @@
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C138" t="s">
+        <v>436</v>
+      </c>
+      <c r="D138" t="s">
         <v>437</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
+        <v>20</v>
+      </c>
+      <c r="F138" t="s">
+        <v>354</v>
+      </c>
+      <c r="G138" t="s">
+        <v>20</v>
+      </c>
+      <c r="I138" t="s">
         <v>438</v>
-      </c>
-      <c r="E138" t="s">
-        <v>20</v>
-      </c>
-      <c r="F138" t="s">
-        <v>355</v>
-      </c>
-      <c r="G138" t="s">
-        <v>20</v>
-      </c>
-      <c r="I138" t="s">
-        <v>439</v>
       </c>
       <c r="K138" s="3"/>
       <c r="L138" t="s">
@@ -8016,7 +8016,7 @@
         <v>19</v>
       </c>
       <c r="P138" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="R138" t="str">
         <f t="shared" si="14"/>
@@ -8029,25 +8029,25 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C139" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D139" t="s">
+        <v>440</v>
+      </c>
+      <c r="E139" t="s">
+        <v>20</v>
+      </c>
+      <c r="F139" t="s">
+        <v>354</v>
+      </c>
+      <c r="G139" t="s">
+        <v>20</v>
+      </c>
+      <c r="I139" t="s">
         <v>441</v>
-      </c>
-      <c r="E139" t="s">
-        <v>20</v>
-      </c>
-      <c r="F139" t="s">
-        <v>355</v>
-      </c>
-      <c r="G139" t="s">
-        <v>20</v>
-      </c>
-      <c r="I139" t="s">
-        <v>442</v>
       </c>
       <c r="K139" s="3"/>
       <c r="L139" t="s">
@@ -8057,10 +8057,10 @@
         <v>19</v>
       </c>
       <c r="P139" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Q139" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R139" t="str">
         <f t="shared" si="14"/>
@@ -8073,25 +8073,25 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C140" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D140" t="s">
+        <v>443</v>
+      </c>
+      <c r="E140" t="s">
+        <v>20</v>
+      </c>
+      <c r="F140" t="s">
+        <v>202</v>
+      </c>
+      <c r="G140" t="s">
+        <v>20</v>
+      </c>
+      <c r="I140" t="s">
         <v>444</v>
-      </c>
-      <c r="E140" t="s">
-        <v>20</v>
-      </c>
-      <c r="F140" t="s">
-        <v>203</v>
-      </c>
-      <c r="G140" t="s">
-        <v>20</v>
-      </c>
-      <c r="I140" t="s">
-        <v>445</v>
       </c>
       <c r="K140" s="3"/>
       <c r="L140" t="s">
@@ -8101,7 +8101,7 @@
         <v>19</v>
       </c>
       <c r="P140" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="R140" t="str">
         <f t="shared" si="14"/>
@@ -8114,25 +8114,25 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C141" t="s">
+        <v>445</v>
+      </c>
+      <c r="D141" t="s">
         <v>446</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
+        <v>20</v>
+      </c>
+      <c r="F141" t="s">
+        <v>202</v>
+      </c>
+      <c r="G141" t="s">
+        <v>20</v>
+      </c>
+      <c r="I141" t="s">
         <v>447</v>
-      </c>
-      <c r="E141" t="s">
-        <v>20</v>
-      </c>
-      <c r="F141" t="s">
-        <v>203</v>
-      </c>
-      <c r="G141" t="s">
-        <v>20</v>
-      </c>
-      <c r="I141" t="s">
-        <v>448</v>
       </c>
       <c r="K141" s="3"/>
       <c r="L141" t="s">
@@ -8142,7 +8142,7 @@
         <v>19</v>
       </c>
       <c r="P141" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="R141" t="str">
         <f t="shared" si="14"/>
@@ -8155,25 +8155,25 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C142" t="s">
+        <v>449</v>
+      </c>
+      <c r="D142" t="s">
         <v>450</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
+        <v>20</v>
+      </c>
+      <c r="F142" t="s">
+        <v>202</v>
+      </c>
+      <c r="G142" t="s">
+        <v>20</v>
+      </c>
+      <c r="I142" t="s">
         <v>451</v>
-      </c>
-      <c r="E142" t="s">
-        <v>20</v>
-      </c>
-      <c r="F142" t="s">
-        <v>203</v>
-      </c>
-      <c r="G142" t="s">
-        <v>20</v>
-      </c>
-      <c r="I142" t="s">
-        <v>452</v>
       </c>
       <c r="K142" s="3"/>
       <c r="L142" t="s">
@@ -8183,7 +8183,7 @@
         <v>19</v>
       </c>
       <c r="P142" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R142" t="str">
         <f t="shared" si="14"/>
@@ -8196,37 +8196,37 @@
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C143" t="s">
+        <v>452</v>
+      </c>
+      <c r="D143" t="s">
         <v>453</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
+        <v>20</v>
+      </c>
+      <c r="F143" t="s">
+        <v>323</v>
+      </c>
+      <c r="G143" t="s">
+        <v>20</v>
+      </c>
+      <c r="I143" t="s">
         <v>454</v>
       </c>
-      <c r="E143" t="s">
-        <v>20</v>
-      </c>
-      <c r="F143" t="s">
-        <v>324</v>
-      </c>
-      <c r="G143" t="s">
-        <v>20</v>
-      </c>
-      <c r="I143" t="s">
-        <v>455</v>
-      </c>
       <c r="L143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M143">
         <v>25</v>
       </c>
       <c r="P143" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="R143" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="T143" t="str">
         <f t="shared" si="15"/>
@@ -8235,25 +8235,25 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C145" t="s">
+        <v>456</v>
+      </c>
+      <c r="D145" t="s">
         <v>457</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
+        <v>19</v>
+      </c>
+      <c r="I145" t="s">
         <v>458</v>
       </c>
-      <c r="E145" t="s">
-        <v>19</v>
-      </c>
-      <c r="I145" t="s">
-        <v>459</v>
-      </c>
       <c r="J145" t="s">
+        <v>50</v>
+      </c>
+      <c r="K145" t="s">
         <v>51</v>
-      </c>
-      <c r="K145" t="s">
-        <v>52</v>
       </c>
       <c r="L145" t="s">
         <v>22</v>
@@ -8262,10 +8262,10 @@
         <v>20</v>
       </c>
       <c r="Q145" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="R145" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T145" t="str">
         <f t="shared" ref="T145:T154" si="16">I145&amp;" "&amp;R145</f>
@@ -8274,28 +8274,28 @@
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C146" t="s">
+        <v>460</v>
+      </c>
+      <c r="D146" t="s">
+        <v>457</v>
+      </c>
+      <c r="E146" t="s">
+        <v>19</v>
+      </c>
+      <c r="I146" t="s">
         <v>461</v>
       </c>
-      <c r="D146" t="s">
-        <v>458</v>
-      </c>
-      <c r="E146" t="s">
-        <v>19</v>
-      </c>
-      <c r="I146" t="s">
-        <v>462</v>
-      </c>
       <c r="L146" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>459</v>
+      </c>
+      <c r="R146" t="s">
         <v>188</v>
-      </c>
-      <c r="Q146" t="s">
-        <v>460</v>
-      </c>
-      <c r="R146" t="s">
-        <v>189</v>
       </c>
       <c r="T146" t="str">
         <f t="shared" si="16"/>
@@ -8304,25 +8304,25 @@
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C147" t="s">
+        <v>462</v>
+      </c>
+      <c r="D147" t="s">
+        <v>457</v>
+      </c>
+      <c r="E147" t="s">
+        <v>19</v>
+      </c>
+      <c r="I147" t="s">
         <v>463</v>
       </c>
-      <c r="D147" t="s">
-        <v>458</v>
-      </c>
-      <c r="E147" t="s">
-        <v>19</v>
-      </c>
-      <c r="I147" t="s">
-        <v>464</v>
-      </c>
       <c r="J147" t="s">
+        <v>50</v>
+      </c>
+      <c r="K147" t="s">
         <v>51</v>
-      </c>
-      <c r="K147" t="s">
-        <v>52</v>
       </c>
       <c r="L147" t="s">
         <v>22</v>
@@ -8331,10 +8331,10 @@
         <v>20</v>
       </c>
       <c r="Q147" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="R147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T147" t="str">
         <f t="shared" si="16"/>
@@ -8343,28 +8343,28 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C148" t="s">
+        <v>465</v>
+      </c>
+      <c r="D148" t="s">
+        <v>457</v>
+      </c>
+      <c r="E148" t="s">
+        <v>19</v>
+      </c>
+      <c r="I148" t="s">
         <v>466</v>
       </c>
-      <c r="D148" t="s">
-        <v>458</v>
-      </c>
-      <c r="E148" t="s">
-        <v>19</v>
-      </c>
-      <c r="I148" t="s">
-        <v>467</v>
-      </c>
       <c r="L148" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>464</v>
+      </c>
+      <c r="R148" t="s">
         <v>188</v>
-      </c>
-      <c r="Q148" t="s">
-        <v>465</v>
-      </c>
-      <c r="R148" t="s">
-        <v>189</v>
       </c>
       <c r="T148" t="str">
         <f t="shared" si="16"/>
@@ -8373,25 +8373,25 @@
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C149" t="s">
+        <v>467</v>
+      </c>
+      <c r="D149" t="s">
         <v>468</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
+        <v>19</v>
+      </c>
+      <c r="I149" t="s">
         <v>469</v>
       </c>
-      <c r="E149" t="s">
-        <v>19</v>
-      </c>
-      <c r="I149" t="s">
-        <v>470</v>
-      </c>
       <c r="J149" t="s">
+        <v>50</v>
+      </c>
+      <c r="K149" t="s">
         <v>51</v>
-      </c>
-      <c r="K149" t="s">
-        <v>52</v>
       </c>
       <c r="L149" t="s">
         <v>22</v>
@@ -8400,10 +8400,10 @@
         <v>20</v>
       </c>
       <c r="Q149" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="R149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T149" t="str">
         <f t="shared" si="16"/>
@@ -8412,28 +8412,28 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C150" t="s">
+        <v>471</v>
+      </c>
+      <c r="D150" t="s">
+        <v>468</v>
+      </c>
+      <c r="E150" t="s">
+        <v>19</v>
+      </c>
+      <c r="I150" t="s">
         <v>472</v>
       </c>
-      <c r="D150" t="s">
-        <v>469</v>
-      </c>
-      <c r="E150" t="s">
-        <v>19</v>
-      </c>
-      <c r="I150" t="s">
-        <v>473</v>
-      </c>
       <c r="L150" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>470</v>
+      </c>
+      <c r="R150" t="s">
         <v>188</v>
-      </c>
-      <c r="Q150" t="s">
-        <v>471</v>
-      </c>
-      <c r="R150" t="s">
-        <v>189</v>
       </c>
       <c r="T150" t="str">
         <f t="shared" si="16"/>
@@ -8442,25 +8442,25 @@
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C151" t="s">
+        <v>473</v>
+      </c>
+      <c r="D151" t="s">
+        <v>468</v>
+      </c>
+      <c r="E151" t="s">
+        <v>19</v>
+      </c>
+      <c r="I151" t="s">
         <v>474</v>
       </c>
-      <c r="D151" t="s">
-        <v>469</v>
-      </c>
-      <c r="E151" t="s">
-        <v>19</v>
-      </c>
-      <c r="I151" t="s">
-        <v>475</v>
-      </c>
       <c r="J151" t="s">
+        <v>50</v>
+      </c>
+      <c r="K151" t="s">
         <v>51</v>
-      </c>
-      <c r="K151" t="s">
-        <v>52</v>
       </c>
       <c r="L151" t="s">
         <v>22</v>
@@ -8469,10 +8469,10 @@
         <v>20</v>
       </c>
       <c r="Q151" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="R151" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T151" t="str">
         <f t="shared" si="16"/>
@@ -8481,28 +8481,28 @@
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C152" t="s">
+        <v>476</v>
+      </c>
+      <c r="D152" t="s">
+        <v>468</v>
+      </c>
+      <c r="E152" t="s">
+        <v>19</v>
+      </c>
+      <c r="I152" t="s">
         <v>477</v>
       </c>
-      <c r="D152" t="s">
-        <v>469</v>
-      </c>
-      <c r="E152" t="s">
-        <v>19</v>
-      </c>
-      <c r="I152" t="s">
-        <v>478</v>
-      </c>
       <c r="L152" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>475</v>
+      </c>
+      <c r="R152" t="s">
         <v>188</v>
-      </c>
-      <c r="Q152" t="s">
-        <v>476</v>
-      </c>
-      <c r="R152" t="s">
-        <v>189</v>
       </c>
       <c r="T152" t="str">
         <f t="shared" si="16"/>
@@ -8511,25 +8511,25 @@
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C153" t="s">
+        <v>478</v>
+      </c>
+      <c r="D153" t="s">
         <v>479</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
+        <v>19</v>
+      </c>
+      <c r="I153" t="s">
         <v>480</v>
       </c>
-      <c r="E153" t="s">
-        <v>19</v>
-      </c>
-      <c r="I153" t="s">
-        <v>481</v>
-      </c>
       <c r="J153" t="s">
+        <v>50</v>
+      </c>
+      <c r="K153" t="s">
         <v>51</v>
-      </c>
-      <c r="K153" t="s">
-        <v>52</v>
       </c>
       <c r="L153" t="s">
         <v>22</v>
@@ -8538,10 +8538,10 @@
         <v>20</v>
       </c>
       <c r="Q153" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="R153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T153" t="str">
         <f t="shared" si="16"/>
@@ -8550,28 +8550,28 @@
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C154" t="s">
+        <v>482</v>
+      </c>
+      <c r="D154" t="s">
+        <v>479</v>
+      </c>
+      <c r="E154" t="s">
+        <v>19</v>
+      </c>
+      <c r="I154" t="s">
         <v>483</v>
       </c>
-      <c r="D154" t="s">
-        <v>480</v>
-      </c>
-      <c r="E154" t="s">
-        <v>19</v>
-      </c>
-      <c r="I154" t="s">
-        <v>484</v>
-      </c>
       <c r="L154" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>481</v>
+      </c>
+      <c r="R154" t="s">
         <v>188</v>
-      </c>
-      <c r="Q154" t="s">
-        <v>482</v>
-      </c>
-      <c r="R154" t="s">
-        <v>189</v>
       </c>
       <c r="T154" t="str">
         <f t="shared" si="16"/>
@@ -8582,22 +8582,22 @@
     <row r="156" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>484</v>
+      </c>
+      <c r="C157" t="s">
         <v>485</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
+        <v>485</v>
+      </c>
+      <c r="E157" t="s">
+        <v>20</v>
+      </c>
+      <c r="F157" t="s">
+        <v>55</v>
+      </c>
+      <c r="I157" t="s">
         <v>486</v>
-      </c>
-      <c r="D157" t="s">
-        <v>486</v>
-      </c>
-      <c r="E157" t="s">
-        <v>20</v>
-      </c>
-      <c r="F157" t="s">
-        <v>56</v>
-      </c>
-      <c r="I157" t="s">
-        <v>487</v>
       </c>
       <c r="K157" s="3"/>
       <c r="L157" t="s">
@@ -8607,10 +8607,10 @@
         <v>19</v>
       </c>
       <c r="P157" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q157" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R157" t="str">
         <f>"smallint check ("&amp;I157&amp;" &gt;=0 and "&amp;I157&amp;" &lt;=1),"</f>
@@ -8623,25 +8623,25 @@
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C158" t="s">
+        <v>487</v>
+      </c>
+      <c r="D158" t="s">
         <v>488</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
+        <v>19</v>
+      </c>
+      <c r="I158" t="s">
         <v>489</v>
       </c>
-      <c r="E158" t="s">
-        <v>19</v>
-      </c>
-      <c r="I158" t="s">
-        <v>490</v>
-      </c>
       <c r="L158" t="s">
+        <v>187</v>
+      </c>
+      <c r="R158" t="s">
         <v>188</v>
-      </c>
-      <c r="R158" t="s">
-        <v>189</v>
       </c>
       <c r="T158" t="str">
         <f t="shared" si="17"/>
@@ -8650,19 +8650,19 @@
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C159" t="s">
+        <v>490</v>
+      </c>
+      <c r="D159" t="s">
         <v>491</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
+        <v>19</v>
+      </c>
+      <c r="I159" t="s">
         <v>492</v>
-      </c>
-      <c r="E159" t="s">
-        <v>19</v>
-      </c>
-      <c r="I159" t="s">
-        <v>493</v>
       </c>
       <c r="L159" t="s">
         <v>22</v>
@@ -8671,7 +8671,7 @@
         <v>20</v>
       </c>
       <c r="R159" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T159" t="str">
         <f t="shared" si="17"/>
@@ -8680,19 +8680,19 @@
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C160" t="s">
+        <v>493</v>
+      </c>
+      <c r="D160" t="s">
         <v>494</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
+        <v>19</v>
+      </c>
+      <c r="I160" t="s">
         <v>495</v>
-      </c>
-      <c r="E160" t="s">
-        <v>19</v>
-      </c>
-      <c r="I160" t="s">
-        <v>496</v>
       </c>
       <c r="K160" s="3"/>
       <c r="L160" t="s">
@@ -8702,7 +8702,7 @@
         <v>19</v>
       </c>
       <c r="P160" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R160" t="str">
         <f>"smallint check ("&amp;I160&amp;" &gt;=0 and "&amp;I160&amp;" &lt;=1),"</f>
@@ -8719,7 +8719,7 @@
       </c>
       <c r="Q161" s="9"/>
       <c r="T161" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
@@ -8727,10 +8727,10 @@
         <v>29</v>
       </c>
       <c r="Q162" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="T162" t="s">
         <v>498</v>
-      </c>
-      <c r="T162" t="s">
-        <v>499</v>
       </c>
     </row>
   </sheetData>
